--- a/중간보고.xlsx
+++ b/중간보고.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allmy\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA1FB3F-D2A2-48A8-8B0F-8D078E5F1F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$561</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -361,12 +370,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -374,8 +383,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -421,17 +437,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -469,7 +493,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -503,6 +527,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -537,9 +562,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -712,14 +738,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G561"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26:G450"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -742,7 +770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -765,7 +793,7 @@
         <v>100.992541</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -782,13 +810,13 @@
         <v>111</v>
       </c>
       <c r="F3">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G3">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -805,13 +833,13 @@
         <v>111</v>
       </c>
       <c r="F4">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G4">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -828,7 +856,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -845,13 +873,13 @@
         <v>111</v>
       </c>
       <c r="F6">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G6">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -874,7 +902,7 @@
         <v>145.7467259</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -897,7 +925,7 @@
         <v>145.7467259</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -920,7 +948,7 @@
         <v>145.7467259</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -943,7 +971,7 @@
         <v>145.7467259</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -960,13 +988,13 @@
         <v>111</v>
       </c>
       <c r="F11">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G11">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -983,13 +1011,13 @@
         <v>111</v>
       </c>
       <c r="F12">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G12">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1009,10 +1037,10 @@
         <v>21.6509982</v>
       </c>
       <c r="G13">
-        <v>121.03351</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>121.03351000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1032,10 +1060,10 @@
         <v>21.6509982</v>
       </c>
       <c r="G14">
-        <v>121.03351</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>121.03351000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1052,13 +1080,13 @@
         <v>111</v>
       </c>
       <c r="F15">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G15">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1075,13 +1103,13 @@
         <v>111</v>
       </c>
       <c r="F16">
-        <v>-8.8071792</v>
+        <v>-8.8071792000000002</v>
       </c>
       <c r="G16">
-        <v>148.3087349</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>148.30873489999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1098,13 +1126,13 @@
         <v>111</v>
       </c>
       <c r="F17">
-        <v>13.444304</v>
+        <v>13.444304000000001</v>
       </c>
       <c r="G17">
-        <v>144.793731</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>144.79373100000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1124,10 +1152,10 @@
         <v>14.5995124</v>
       </c>
       <c r="G18">
-        <v>120.9842195</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>120.98421949999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1144,13 +1172,13 @@
         <v>111</v>
       </c>
       <c r="F19">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G19">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1173,7 +1201,7 @@
         <v>145.7467259</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1193,10 +1221,10 @@
         <v>21.6509982</v>
       </c>
       <c r="G21">
-        <v>121.03351</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>121.03351000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1213,13 +1241,13 @@
         <v>111</v>
       </c>
       <c r="F22">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G22">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1239,10 +1267,10 @@
         <v>21.6509982</v>
       </c>
       <c r="G23">
-        <v>121.03351</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>121.03351000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1259,13 +1287,13 @@
         <v>111</v>
       </c>
       <c r="F24">
-        <v>4.307074</v>
+        <v>4.3070740000000001</v>
       </c>
       <c r="G24">
-        <v>132.3103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>132.31030000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1288,7 +1316,7 @@
         <v>145.7467259</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1305,13 +1333,13 @@
         <v>111</v>
       </c>
       <c r="F26">
-        <v>-27.9988823</v>
+        <v>-8.6752537000000007</v>
       </c>
       <c r="G26">
-        <v>152.6819874</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>148.4130557</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1328,13 +1356,13 @@
         <v>111</v>
       </c>
       <c r="F27">
-        <v>13.444304</v>
+        <v>13.444304000000001</v>
       </c>
       <c r="G27">
-        <v>144.793731</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>144.79373100000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1351,13 +1379,13 @@
         <v>111</v>
       </c>
       <c r="F28">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G28">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1374,7 +1402,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1391,13 +1419,13 @@
         <v>111</v>
       </c>
       <c r="F30">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G30">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1417,10 +1445,10 @@
         <v>33.8750529</v>
       </c>
       <c r="G31">
-        <v>139.6044141</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>139.60441410000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1437,13 +1465,13 @@
         <v>111</v>
       </c>
       <c r="F32">
-        <v>16.4724364</v>
+        <v>16.472436399999999</v>
       </c>
       <c r="G32">
         <v>145.3395481</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1460,13 +1488,13 @@
         <v>111</v>
       </c>
       <c r="F33">
-        <v>-8.8071792</v>
+        <v>-8.8071792000000002</v>
       </c>
       <c r="G33">
-        <v>148.3087349</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>148.30873489999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1486,10 +1514,10 @@
         <v>21.916221</v>
       </c>
       <c r="G34">
-        <v>95.955974</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>95.955973999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1512,7 +1540,7 @@
         <v>145.7467259</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1529,13 +1557,13 @@
         <v>111</v>
       </c>
       <c r="F36">
-        <v>-37.579413</v>
+        <v>-37.579413000000002</v>
       </c>
       <c r="G36">
         <v>-139.394531</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1552,13 +1580,13 @@
         <v>111</v>
       </c>
       <c r="F37">
-        <v>7.514979999999999</v>
+        <v>7.5149799999999987</v>
       </c>
       <c r="G37">
-        <v>134.58252</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>134.58251999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1575,13 +1603,13 @@
         <v>111</v>
       </c>
       <c r="F38">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G38">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1601,10 +1629,10 @@
         <v>21.6509982</v>
       </c>
       <c r="G39">
-        <v>121.03351</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>121.03351000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1621,13 +1649,13 @@
         <v>111</v>
       </c>
       <c r="F40">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G40">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1644,13 +1672,13 @@
         <v>111</v>
       </c>
       <c r="F41">
-        <v>20.8765931</v>
+        <v>20.876593100000001</v>
       </c>
       <c r="G41">
-        <v>95.8601611</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>95.860161099999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1667,13 +1695,13 @@
         <v>111</v>
       </c>
       <c r="F42">
-        <v>16.5662</v>
+        <v>16.566199999999998</v>
       </c>
       <c r="G42">
-        <v>121.263</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>121.26300000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1696,7 +1724,7 @@
         <v>120.960515</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1713,13 +1741,13 @@
         <v>111</v>
       </c>
       <c r="F44">
-        <v>16.5662</v>
+        <v>16.566199999999998</v>
       </c>
       <c r="G44">
-        <v>121.263</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>121.26300000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1736,13 +1764,13 @@
         <v>111</v>
       </c>
       <c r="F45">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G45">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1759,13 +1787,13 @@
         <v>111</v>
       </c>
       <c r="F46">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G46">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1782,13 +1810,13 @@
         <v>111</v>
       </c>
       <c r="F47">
-        <v>-7.55758</v>
+        <v>22.627277200000002</v>
       </c>
       <c r="G47">
-        <v>109.9288</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>120.30143750000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1805,13 +1833,13 @@
         <v>111</v>
       </c>
       <c r="F48">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G48">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1828,13 +1856,13 @@
         <v>111</v>
       </c>
       <c r="F49">
-        <v>20.8765931</v>
+        <v>20.876593100000001</v>
       </c>
       <c r="G49">
-        <v>95.8601611</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>95.860161099999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1851,13 +1879,13 @@
         <v>111</v>
       </c>
       <c r="F50">
-        <v>-8.8071792</v>
+        <v>-8.8071792000000002</v>
       </c>
       <c r="G50">
-        <v>148.3087349</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>148.30873489999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1880,7 +1908,7 @@
         <v>102.0718</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1897,13 +1925,13 @@
         <v>111</v>
       </c>
       <c r="F52">
-        <v>1.312124</v>
+        <v>1.3121240000000001</v>
       </c>
       <c r="G52">
-        <v>128.485</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>128.48500000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1920,13 +1948,13 @@
         <v>111</v>
       </c>
       <c r="F53">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G53">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1943,13 +1971,13 @@
         <v>111</v>
       </c>
       <c r="F54">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G54">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1966,13 +1994,13 @@
         <v>111</v>
       </c>
       <c r="F55">
-        <v>-37.579413</v>
+        <v>-37.579413000000002</v>
       </c>
       <c r="G55">
         <v>-139.394531</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1989,13 +2017,13 @@
         <v>111</v>
       </c>
       <c r="F56">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G56">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2012,13 +2040,13 @@
         <v>111</v>
       </c>
       <c r="F57">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G57">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2035,13 +2063,13 @@
         <v>111</v>
       </c>
       <c r="F58">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G58">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2058,13 +2086,13 @@
         <v>111</v>
       </c>
       <c r="F59">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G59">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2081,13 +2109,13 @@
         <v>111</v>
       </c>
       <c r="F60">
-        <v>-8.8071792</v>
+        <v>-8.8071792000000002</v>
       </c>
       <c r="G60">
-        <v>148.3087349</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>148.30873489999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2104,13 +2132,13 @@
         <v>111</v>
       </c>
       <c r="F61">
-        <v>30.39535</v>
+        <v>30.395350000000001</v>
       </c>
       <c r="G61">
         <v>125.9152</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2127,13 +2155,13 @@
         <v>111</v>
       </c>
       <c r="F62">
-        <v>30.39535</v>
+        <v>30.395350000000001</v>
       </c>
       <c r="G62">
         <v>125.9152</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2150,7 +2178,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2167,13 +2195,13 @@
         <v>111</v>
       </c>
       <c r="F64">
-        <v>1.312124</v>
+        <v>1.3121240000000001</v>
       </c>
       <c r="G64">
-        <v>128.485</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>128.48500000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2190,13 +2218,13 @@
         <v>111</v>
       </c>
       <c r="F65">
-        <v>23.6523707</v>
+        <v>23.652370699999999</v>
       </c>
       <c r="G65">
         <v>-166.547146</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2213,13 +2241,13 @@
         <v>111</v>
       </c>
       <c r="F66">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G66">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2236,13 +2264,13 @@
         <v>111</v>
       </c>
       <c r="F67">
-        <v>-9.645709999999999</v>
+        <v>-9.6457099999999993</v>
       </c>
       <c r="G67">
         <v>160.156194</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2259,13 +2287,13 @@
         <v>111</v>
       </c>
       <c r="F68">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G68">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2288,7 +2316,7 @@
         <v>172.9716617</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2311,7 +2339,7 @@
         <v>120.960515</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2328,13 +2356,13 @@
         <v>111</v>
       </c>
       <c r="F71">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G71">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2351,13 +2379,13 @@
         <v>111</v>
       </c>
       <c r="F72">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G72">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2377,10 +2405,10 @@
         <v>21.6509982</v>
       </c>
       <c r="G73">
-        <v>121.03351</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>121.03351000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2397,13 +2425,13 @@
         <v>111</v>
       </c>
       <c r="F74">
-        <v>-8.8071792</v>
+        <v>-8.8071792000000002</v>
       </c>
       <c r="G74">
-        <v>148.3087349</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>148.30873489999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2420,13 +2448,13 @@
         <v>111</v>
       </c>
       <c r="F75">
-        <v>0.9618834000000001</v>
+        <v>0.96188340000000006</v>
       </c>
       <c r="G75">
         <v>114.5548495</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2443,13 +2471,13 @@
         <v>111</v>
       </c>
       <c r="F76">
-        <v>-4.1999648</v>
+        <v>-4.1999648000000001</v>
       </c>
       <c r="G76">
-        <v>152.1644612</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>152.16446120000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2466,7 +2494,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2486,10 +2514,10 @@
         <v>21.916221</v>
       </c>
       <c r="G78">
-        <v>95.955974</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>95.955973999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2506,13 +2534,13 @@
         <v>111</v>
       </c>
       <c r="F79">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G79">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2529,7 +2557,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2546,13 +2574,13 @@
         <v>111</v>
       </c>
       <c r="F81">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G81">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2569,13 +2597,13 @@
         <v>111</v>
       </c>
       <c r="F82">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G82">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2592,13 +2620,13 @@
         <v>111</v>
       </c>
       <c r="F83">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G83">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2615,13 +2643,13 @@
         <v>111</v>
       </c>
       <c r="F84">
-        <v>16.4724364</v>
+        <v>16.472436399999999</v>
       </c>
       <c r="G84">
         <v>145.3395481</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2638,13 +2666,13 @@
         <v>111</v>
       </c>
       <c r="F85">
-        <v>7.514979999999999</v>
+        <v>7.5149799999999987</v>
       </c>
       <c r="G85">
-        <v>134.58252</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>134.58251999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2661,13 +2689,13 @@
         <v>111</v>
       </c>
       <c r="F86">
-        <v>7.514979999999999</v>
+        <v>7.5149799999999987</v>
       </c>
       <c r="G86">
-        <v>134.58252</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>134.58251999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2684,13 +2712,13 @@
         <v>111</v>
       </c>
       <c r="F87">
-        <v>7.514979999999999</v>
+        <v>7.5149799999999987</v>
       </c>
       <c r="G87">
-        <v>134.58252</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>134.58251999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2707,13 +2735,13 @@
         <v>111</v>
       </c>
       <c r="F88">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G88">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2730,13 +2758,13 @@
         <v>111</v>
       </c>
       <c r="F89">
-        <v>7.514979999999999</v>
+        <v>7.5149799999999987</v>
       </c>
       <c r="G89">
-        <v>134.58252</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>134.58251999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2756,10 +2784,10 @@
         <v>21.916221</v>
       </c>
       <c r="G90">
-        <v>95.955974</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>95.955973999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2776,13 +2804,13 @@
         <v>111</v>
       </c>
       <c r="F91">
-        <v>4.307074</v>
+        <v>4.3070740000000001</v>
       </c>
       <c r="G91">
-        <v>132.3103</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>132.31030000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2805,7 +2833,7 @@
         <v>121.774017</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2822,13 +2850,13 @@
         <v>111</v>
       </c>
       <c r="F93">
-        <v>-0.589724</v>
+        <v>-0.58972400000000003</v>
       </c>
       <c r="G93">
         <v>101.3431058</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2845,13 +2873,13 @@
         <v>111</v>
       </c>
       <c r="F94">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G94">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2871,10 +2899,10 @@
         <v>21.916221</v>
       </c>
       <c r="G95">
-        <v>95.955974</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>95.955973999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2891,13 +2919,13 @@
         <v>111</v>
       </c>
       <c r="F96">
-        <v>5.2275761</v>
+        <v>-3.5718445000000001</v>
       </c>
       <c r="G96">
-        <v>95.6300233</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>143.6131943</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2914,13 +2942,13 @@
         <v>111</v>
       </c>
       <c r="F97">
-        <v>11.4653625</v>
+        <v>11.465362499999999</v>
       </c>
       <c r="G97">
-        <v>162.189</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>162.18899999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2937,13 +2965,13 @@
         <v>111</v>
       </c>
       <c r="F98">
-        <v>8.496130000000001</v>
+        <v>8.4961300000000008</v>
       </c>
       <c r="G98">
         <v>123.3034062</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2960,13 +2988,13 @@
         <v>111</v>
       </c>
       <c r="F99">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G99">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2983,13 +3011,13 @@
         <v>111</v>
       </c>
       <c r="F100">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G100">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3012,7 +3040,7 @@
         <v>145.7467259</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3029,13 +3057,13 @@
         <v>111</v>
       </c>
       <c r="F102">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G102">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3052,13 +3080,13 @@
         <v>111</v>
       </c>
       <c r="F103">
-        <v>23.6523707</v>
+        <v>23.652370699999999</v>
       </c>
       <c r="G103">
         <v>-166.547146</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3075,13 +3103,13 @@
         <v>111</v>
       </c>
       <c r="F104">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G104">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3104,7 +3132,7 @@
         <v>145.7467259</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3124,10 +3152,10 @@
         <v>21.6509982</v>
       </c>
       <c r="G106">
-        <v>121.03351</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+        <v>121.03351000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3144,13 +3172,13 @@
         <v>111</v>
       </c>
       <c r="F107">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G107">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3167,13 +3195,13 @@
         <v>111</v>
       </c>
       <c r="F108">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G108">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3190,13 +3218,13 @@
         <v>111</v>
       </c>
       <c r="F109">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G109">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3213,13 +3241,13 @@
         <v>111</v>
       </c>
       <c r="F110">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G110">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3236,13 +3264,13 @@
         <v>111</v>
       </c>
       <c r="F111">
-        <v>-8.8071792</v>
+        <v>-8.8071792000000002</v>
       </c>
       <c r="G111">
-        <v>148.3087349</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+        <v>148.30873489999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3259,13 +3287,13 @@
         <v>111</v>
       </c>
       <c r="F112">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G112">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3282,13 +3310,13 @@
         <v>111</v>
       </c>
       <c r="F113">
-        <v>7.514979999999999</v>
+        <v>7.5149799999999987</v>
       </c>
       <c r="G113">
-        <v>134.58252</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+        <v>134.58251999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3305,13 +3333,13 @@
         <v>111</v>
       </c>
       <c r="F114">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G114">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3334,7 +3362,7 @@
         <v>172.9716617</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3351,13 +3379,13 @@
         <v>111</v>
       </c>
       <c r="F116">
-        <v>7.514979999999999</v>
+        <v>7.5149799999999987</v>
       </c>
       <c r="G116">
-        <v>134.58252</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+        <v>134.58251999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3374,7 +3402,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3391,13 +3419,13 @@
         <v>111</v>
       </c>
       <c r="F118">
-        <v>8.496130000000001</v>
+        <v>8.4961300000000008</v>
       </c>
       <c r="G118">
         <v>123.3034062</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3414,13 +3442,13 @@
         <v>111</v>
       </c>
       <c r="F119">
-        <v>4.307074</v>
+        <v>4.3070740000000001</v>
       </c>
       <c r="G119">
-        <v>132.3103</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+        <v>132.31030000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3437,13 +3465,13 @@
         <v>111</v>
       </c>
       <c r="F120">
-        <v>4.085044143053737</v>
+        <v>4.0850441430537368</v>
       </c>
       <c r="G120">
-        <v>131.7175510700953</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+        <v>131.71755107009531</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3460,13 +3488,13 @@
         <v>111</v>
       </c>
       <c r="F121">
-        <v>20.8765931</v>
+        <v>20.876593100000001</v>
       </c>
       <c r="G121">
-        <v>95.8601611</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+        <v>95.860161099999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3483,13 +3511,13 @@
         <v>111</v>
       </c>
       <c r="F122">
-        <v>-5.7465904</v>
+        <v>-5.7465903999999997</v>
       </c>
       <c r="G122">
-        <v>150.7679216</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+        <v>150.76792159999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3506,13 +3534,13 @@
         <v>111</v>
       </c>
       <c r="F123">
-        <v>7.514979999999999</v>
+        <v>7.5149799999999987</v>
       </c>
       <c r="G123">
-        <v>134.58252</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <v>134.58251999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3529,13 +3557,13 @@
         <v>111</v>
       </c>
       <c r="F124">
-        <v>-8.8071792</v>
+        <v>-8.8071792000000002</v>
       </c>
       <c r="G124">
-        <v>148.3087349</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+        <v>148.30873489999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3552,13 +3580,13 @@
         <v>111</v>
       </c>
       <c r="F125">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G125">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3575,13 +3603,13 @@
         <v>111</v>
       </c>
       <c r="F126">
-        <v>23.6523707</v>
+        <v>23.652370699999999</v>
       </c>
       <c r="G126">
         <v>-166.547146</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3598,7 +3626,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3615,13 +3643,13 @@
         <v>111</v>
       </c>
       <c r="F128">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G128">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3638,13 +3666,13 @@
         <v>111</v>
       </c>
       <c r="F129">
-        <v>16.5662</v>
+        <v>16.566199999999998</v>
       </c>
       <c r="G129">
-        <v>121.263</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
+        <v>121.26300000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3667,7 +3695,7 @@
         <v>121.774017</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3690,7 +3718,7 @@
         <v>145.7467259</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3707,13 +3735,13 @@
         <v>111</v>
       </c>
       <c r="F132">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G132">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3730,13 +3758,13 @@
         <v>111</v>
       </c>
       <c r="F133">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G133">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3753,13 +3781,13 @@
         <v>111</v>
       </c>
       <c r="F134">
-        <v>13.444304</v>
+        <v>13.444304000000001</v>
       </c>
       <c r="G134">
-        <v>144.793731</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
+        <v>144.79373100000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3776,13 +3804,13 @@
         <v>111</v>
       </c>
       <c r="F135">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G135">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3799,13 +3827,13 @@
         <v>111</v>
       </c>
       <c r="F136">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G136">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3822,13 +3850,13 @@
         <v>111</v>
       </c>
       <c r="F137">
-        <v>-7.0569095</v>
+        <v>-7.0569094999999997</v>
       </c>
       <c r="G137">
-        <v>147.0479693</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
+        <v>147.04796930000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3845,13 +3873,13 @@
         <v>111</v>
       </c>
       <c r="F138">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G138">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3868,13 +3896,13 @@
         <v>111</v>
       </c>
       <c r="F139">
-        <v>-37.579413</v>
+        <v>-37.579413000000002</v>
       </c>
       <c r="G139">
         <v>-139.394531</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3891,13 +3919,13 @@
         <v>111</v>
       </c>
       <c r="F140">
-        <v>9.19167608805486</v>
+        <v>9.1916760880548605</v>
       </c>
       <c r="G140">
         <v>167.42510055475</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A141">
         <v>140</v>
       </c>
@@ -3917,10 +3945,10 @@
         <v>14.5995124</v>
       </c>
       <c r="G141">
-        <v>120.9842195</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
+        <v>120.98421949999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A142">
         <v>141</v>
       </c>
@@ -3937,7 +3965,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A143">
         <v>142</v>
       </c>
@@ -3954,13 +3982,13 @@
         <v>111</v>
       </c>
       <c r="F143">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G143">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A144">
         <v>143</v>
       </c>
@@ -3983,7 +4011,7 @@
         <v>172.9716617</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4000,13 +4028,13 @@
         <v>111</v>
       </c>
       <c r="F145">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G145">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4023,13 +4051,13 @@
         <v>111</v>
       </c>
       <c r="F146">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G146">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4046,13 +4074,13 @@
         <v>111</v>
       </c>
       <c r="F147">
-        <v>7.514979999999999</v>
+        <v>7.5149799999999987</v>
       </c>
       <c r="G147">
-        <v>134.58252</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
+        <v>134.58251999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4069,13 +4097,13 @@
         <v>111</v>
       </c>
       <c r="F148">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G148">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4092,7 +4120,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4109,13 +4137,13 @@
         <v>111</v>
       </c>
       <c r="F150">
-        <v>7.0736114</v>
+        <v>7.0736113999999999</v>
       </c>
       <c r="G150">
         <v>125.6110248</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4138,7 +4166,7 @@
         <v>145.7467259</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4161,7 +4189,7 @@
         <v>172.9716617</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4178,13 +4206,13 @@
         <v>111</v>
       </c>
       <c r="F153">
-        <v>8.496130000000001</v>
+        <v>8.4961300000000008</v>
       </c>
       <c r="G153">
         <v>123.3034062</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4201,13 +4229,13 @@
         <v>111</v>
       </c>
       <c r="F154">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G154">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4224,13 +4252,13 @@
         <v>111</v>
       </c>
       <c r="F155">
-        <v>-4.1999648</v>
+        <v>-4.1999648000000001</v>
       </c>
       <c r="G155">
-        <v>152.1644612</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
+        <v>152.16446120000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4247,13 +4275,13 @@
         <v>111</v>
       </c>
       <c r="F156">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G156">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4276,7 +4304,7 @@
         <v>172.9716617</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4293,7 +4321,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4310,13 +4338,13 @@
         <v>111</v>
       </c>
       <c r="F159">
-        <v>-27.9988823</v>
+        <v>-8.6752537000000007</v>
       </c>
       <c r="G159">
-        <v>152.6819874</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
+        <v>148.4130557</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4333,13 +4361,13 @@
         <v>111</v>
       </c>
       <c r="F160">
-        <v>8.496130000000001</v>
+        <v>8.4961300000000008</v>
       </c>
       <c r="G160">
         <v>123.3034062</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4356,13 +4384,13 @@
         <v>111</v>
       </c>
       <c r="F161">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G161">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4385,7 +4413,7 @@
         <v>172.9716617</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4402,13 +4430,13 @@
         <v>111</v>
       </c>
       <c r="F163">
-        <v>7.514979999999999</v>
+        <v>7.5149799999999987</v>
       </c>
       <c r="G163">
-        <v>134.58252</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
+        <v>134.58251999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4425,13 +4453,13 @@
         <v>111</v>
       </c>
       <c r="F164">
-        <v>16.4724364</v>
+        <v>16.472436399999999</v>
       </c>
       <c r="G164">
         <v>145.3395481</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4448,13 +4476,13 @@
         <v>111</v>
       </c>
       <c r="F165">
-        <v>7.514979999999999</v>
+        <v>7.5149799999999987</v>
       </c>
       <c r="G165">
-        <v>134.58252</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
+        <v>134.58251999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4471,13 +4499,13 @@
         <v>111</v>
       </c>
       <c r="F166">
-        <v>-8.8071792</v>
+        <v>-8.8071792000000002</v>
       </c>
       <c r="G166">
-        <v>148.3087349</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
+        <v>148.30873489999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4494,13 +4522,13 @@
         <v>111</v>
       </c>
       <c r="F167">
-        <v>9.19167608805486</v>
+        <v>9.1916760880548605</v>
       </c>
       <c r="G167">
         <v>167.42510055475</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4517,13 +4545,13 @@
         <v>111</v>
       </c>
       <c r="F168">
-        <v>9.19167608805486</v>
+        <v>9.1916760880548605</v>
       </c>
       <c r="G168">
         <v>167.42510055475</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4540,7 +4568,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A170">
         <v>169</v>
       </c>
@@ -4563,7 +4591,7 @@
         <v>147.0562333</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A171">
         <v>170</v>
       </c>
@@ -4580,13 +4608,13 @@
         <v>111</v>
       </c>
       <c r="F171">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G171">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A172">
         <v>171</v>
       </c>
@@ -4603,13 +4631,13 @@
         <v>111</v>
       </c>
       <c r="F172">
-        <v>9.4416879</v>
+        <v>9.4416878999999998</v>
       </c>
       <c r="G172">
         <v>170.0063672</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A173">
         <v>172</v>
       </c>
@@ -4626,13 +4654,13 @@
         <v>111</v>
       </c>
       <c r="F173">
-        <v>-9.862794599999999</v>
+        <v>-9.8627945999999991</v>
       </c>
       <c r="G173">
         <v>124.3310364</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A174">
         <v>173</v>
       </c>
@@ -4649,13 +4677,13 @@
         <v>111</v>
       </c>
       <c r="F174">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G174">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A175">
         <v>174</v>
       </c>
@@ -4672,13 +4700,13 @@
         <v>111</v>
       </c>
       <c r="F175">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G175">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A176">
         <v>175</v>
       </c>
@@ -4695,13 +4723,13 @@
         <v>111</v>
       </c>
       <c r="F176">
-        <v>9.396247199999999</v>
+        <v>9.3962471999999995</v>
       </c>
       <c r="G176">
-        <v>167.4650822</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
+        <v>167.46508220000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A177">
         <v>176</v>
       </c>
@@ -4724,7 +4752,7 @@
         <v>124.8811195</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A178">
         <v>177</v>
       </c>
@@ -4741,13 +4769,13 @@
         <v>111</v>
       </c>
       <c r="F178">
-        <v>-5.7465904</v>
+        <v>-5.7465903999999997</v>
       </c>
       <c r="G178">
-        <v>150.7679216</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
+        <v>150.76792159999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A179">
         <v>178</v>
       </c>
@@ -4764,13 +4792,13 @@
         <v>111</v>
       </c>
       <c r="F179">
-        <v>16.4724364</v>
+        <v>16.472436399999999</v>
       </c>
       <c r="G179">
         <v>145.3395481</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A180">
         <v>179</v>
       </c>
@@ -4793,7 +4821,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A181">
         <v>180</v>
       </c>
@@ -4816,7 +4844,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A182">
         <v>181</v>
       </c>
@@ -4839,7 +4867,7 @@
         <v>145.7467259</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A183">
         <v>182</v>
       </c>
@@ -4856,13 +4884,13 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G183">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A184">
         <v>183</v>
       </c>
@@ -4879,13 +4907,13 @@
         <v>111</v>
       </c>
       <c r="F184">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G184">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A185">
         <v>184</v>
       </c>
@@ -4902,13 +4930,13 @@
         <v>111</v>
       </c>
       <c r="F185">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G185">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A186">
         <v>185</v>
       </c>
@@ -4928,10 +4956,10 @@
         <v>21.916221</v>
       </c>
       <c r="G186">
-        <v>95.955974</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7">
+        <v>95.955973999999998</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A187">
         <v>186</v>
       </c>
@@ -4948,7 +4976,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A188">
         <v>187</v>
       </c>
@@ -4965,13 +4993,13 @@
         <v>111</v>
       </c>
       <c r="F188">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G188">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A189">
         <v>188</v>
       </c>
@@ -4988,13 +5016,13 @@
         <v>111</v>
       </c>
       <c r="F189">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G189">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A190">
         <v>189</v>
       </c>
@@ -5011,13 +5039,13 @@
         <v>111</v>
       </c>
       <c r="F190">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G190">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A191">
         <v>190</v>
       </c>
@@ -5034,7 +5062,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A192">
         <v>191</v>
       </c>
@@ -5051,13 +5079,13 @@
         <v>111</v>
       </c>
       <c r="F192">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G192">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A193">
         <v>192</v>
       </c>
@@ -5080,7 +5108,7 @@
         <v>172.9716617</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A194">
         <v>193</v>
       </c>
@@ -5097,13 +5125,13 @@
         <v>111</v>
       </c>
       <c r="F194">
-        <v>16.5662</v>
+        <v>16.566199999999998</v>
       </c>
       <c r="G194">
-        <v>121.263</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7">
+        <v>121.26300000000001</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A195">
         <v>194</v>
       </c>
@@ -5120,13 +5148,13 @@
         <v>111</v>
       </c>
       <c r="F195">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G195">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A196">
         <v>195</v>
       </c>
@@ -5143,13 +5171,13 @@
         <v>111</v>
       </c>
       <c r="F196">
-        <v>8.496130000000001</v>
+        <v>8.4961300000000008</v>
       </c>
       <c r="G196">
         <v>123.3034062</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A197">
         <v>196</v>
       </c>
@@ -5166,13 +5194,13 @@
         <v>111</v>
       </c>
       <c r="F197">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G197">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A198">
         <v>197</v>
       </c>
@@ -5189,13 +5217,13 @@
         <v>111</v>
       </c>
       <c r="F198">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G198">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A199">
         <v>198</v>
       </c>
@@ -5215,10 +5243,10 @@
         <v>21.916221</v>
       </c>
       <c r="G199">
-        <v>95.955974</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7">
+        <v>95.955973999999998</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A200">
         <v>199</v>
       </c>
@@ -5235,13 +5263,13 @@
         <v>111</v>
       </c>
       <c r="F200">
-        <v>16.5662</v>
+        <v>16.566199999999998</v>
       </c>
       <c r="G200">
-        <v>121.263</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7">
+        <v>121.26300000000001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A201">
         <v>200</v>
       </c>
@@ -5258,13 +5286,13 @@
         <v>111</v>
       </c>
       <c r="F201">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G201">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A202">
         <v>201</v>
       </c>
@@ -5287,7 +5315,7 @@
         <v>120.960515</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A203">
         <v>202</v>
       </c>
@@ -5310,7 +5338,7 @@
         <v>172.9716617</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A204">
         <v>203</v>
       </c>
@@ -5327,13 +5355,13 @@
         <v>111</v>
       </c>
       <c r="F204">
-        <v>11.4653625</v>
+        <v>11.465362499999999</v>
       </c>
       <c r="G204">
-        <v>162.189</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7">
+        <v>162.18899999999999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A205">
         <v>204</v>
       </c>
@@ -5350,13 +5378,13 @@
         <v>111</v>
       </c>
       <c r="F205">
-        <v>11.4653625</v>
+        <v>11.465362499999999</v>
       </c>
       <c r="G205">
-        <v>162.189</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7">
+        <v>162.18899999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A206">
         <v>205</v>
       </c>
@@ -5379,7 +5407,7 @@
         <v>145.7467259</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A207">
         <v>206</v>
       </c>
@@ -5396,13 +5424,13 @@
         <v>111</v>
       </c>
       <c r="F207">
-        <v>9.19167608805486</v>
+        <v>9.1916760880548605</v>
       </c>
       <c r="G207">
         <v>167.42510055475</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A208">
         <v>207</v>
       </c>
@@ -5425,7 +5453,7 @@
         <v>172.9716617</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A209">
         <v>208</v>
       </c>
@@ -5442,13 +5470,13 @@
         <v>111</v>
       </c>
       <c r="F209">
-        <v>7.514979999999999</v>
+        <v>7.5149799999999987</v>
       </c>
       <c r="G209">
-        <v>134.58252</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7">
+        <v>134.58251999999999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A210">
         <v>209</v>
       </c>
@@ -5465,13 +5493,13 @@
         <v>111</v>
       </c>
       <c r="F210">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G210">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A211">
         <v>210</v>
       </c>
@@ -5488,13 +5516,13 @@
         <v>111</v>
       </c>
       <c r="F211">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G211">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A212">
         <v>211</v>
       </c>
@@ -5511,13 +5539,13 @@
         <v>111</v>
       </c>
       <c r="F212">
-        <v>7.514979999999999</v>
+        <v>7.5149799999999987</v>
       </c>
       <c r="G212">
-        <v>134.58252</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7">
+        <v>134.58251999999999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A213">
         <v>212</v>
       </c>
@@ -5534,13 +5562,13 @@
         <v>111</v>
       </c>
       <c r="F213">
-        <v>11.4653625</v>
+        <v>11.465362499999999</v>
       </c>
       <c r="G213">
-        <v>162.189</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7">
+        <v>162.18899999999999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A214">
         <v>213</v>
       </c>
@@ -5557,13 +5585,13 @@
         <v>111</v>
       </c>
       <c r="F214">
-        <v>11.4653625</v>
+        <v>11.465362499999999</v>
       </c>
       <c r="G214">
-        <v>162.189</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7">
+        <v>162.18899999999999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A215">
         <v>214</v>
       </c>
@@ -5580,13 +5608,13 @@
         <v>111</v>
       </c>
       <c r="F215">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G215">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A216">
         <v>215</v>
       </c>
@@ -5603,7 +5631,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A217">
         <v>216</v>
       </c>
@@ -5623,10 +5651,10 @@
         <v>20.593684</v>
       </c>
       <c r="G217">
-        <v>78.96288</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7">
+        <v>78.962879999999998</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A218">
         <v>217</v>
       </c>
@@ -5643,13 +5671,13 @@
         <v>111</v>
       </c>
       <c r="F218">
-        <v>16.5662</v>
+        <v>16.566199999999998</v>
       </c>
       <c r="G218">
-        <v>121.263</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7">
+        <v>121.26300000000001</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A219">
         <v>218</v>
       </c>
@@ -5666,13 +5694,13 @@
         <v>111</v>
       </c>
       <c r="F219">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G219">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A220">
         <v>219</v>
       </c>
@@ -5689,13 +5717,13 @@
         <v>111</v>
       </c>
       <c r="F220">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G220">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A221">
         <v>220</v>
       </c>
@@ -5712,7 +5740,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A222">
         <v>221</v>
       </c>
@@ -5729,13 +5757,13 @@
         <v>111</v>
       </c>
       <c r="F222">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G222">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A223">
         <v>222</v>
       </c>
@@ -5752,13 +5780,13 @@
         <v>111</v>
       </c>
       <c r="F223">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G223">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A224">
         <v>223</v>
       </c>
@@ -5775,13 +5803,13 @@
         <v>111</v>
       </c>
       <c r="F224">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G224">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A225">
         <v>224</v>
       </c>
@@ -5804,7 +5832,7 @@
         <v>145.7467259</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A226">
         <v>225</v>
       </c>
@@ -5821,13 +5849,13 @@
         <v>111</v>
       </c>
       <c r="F226">
-        <v>7.514979999999999</v>
+        <v>7.5149799999999987</v>
       </c>
       <c r="G226">
-        <v>134.58252</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7">
+        <v>134.58251999999999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A227">
         <v>226</v>
       </c>
@@ -5844,13 +5872,13 @@
         <v>111</v>
       </c>
       <c r="F227">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G227">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A228">
         <v>227</v>
       </c>
@@ -5867,13 +5895,13 @@
         <v>111</v>
       </c>
       <c r="F228">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G228">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A229">
         <v>228</v>
       </c>
@@ -5890,13 +5918,13 @@
         <v>111</v>
       </c>
       <c r="F229">
-        <v>-9.645709999999999</v>
+        <v>-9.6457099999999993</v>
       </c>
       <c r="G229">
         <v>160.156194</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A230">
         <v>229</v>
       </c>
@@ -5913,13 +5941,13 @@
         <v>111</v>
       </c>
       <c r="F230">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G230">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A231">
         <v>230</v>
       </c>
@@ -5942,7 +5970,7 @@
         <v>172.9716617</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A232">
         <v>231</v>
       </c>
@@ -5959,13 +5987,13 @@
         <v>111</v>
       </c>
       <c r="F232">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G232">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A233">
         <v>232</v>
       </c>
@@ -5988,7 +6016,7 @@
         <v>145.7467259</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A234">
         <v>233</v>
       </c>
@@ -6005,13 +6033,13 @@
         <v>111</v>
       </c>
       <c r="F234">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G234">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A235">
         <v>234</v>
       </c>
@@ -6028,13 +6056,13 @@
         <v>111</v>
       </c>
       <c r="F235">
-        <v>9.19167608805486</v>
+        <v>9.1916760880548605</v>
       </c>
       <c r="G235">
         <v>167.42510055475</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A236">
         <v>235</v>
       </c>
@@ -6051,13 +6079,13 @@
         <v>111</v>
       </c>
       <c r="F236">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G236">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A237">
         <v>236</v>
       </c>
@@ -6077,10 +6105,10 @@
         <v>21.916221</v>
       </c>
       <c r="G237">
-        <v>95.955974</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7">
+        <v>95.955973999999998</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A238">
         <v>237</v>
       </c>
@@ -6097,13 +6125,13 @@
         <v>111</v>
       </c>
       <c r="F238">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G238">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A239">
         <v>238</v>
       </c>
@@ -6120,13 +6148,13 @@
         <v>111</v>
       </c>
       <c r="F239">
-        <v>4.307074</v>
+        <v>4.3070740000000001</v>
       </c>
       <c r="G239">
-        <v>132.3103</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7">
+        <v>132.31030000000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A240">
         <v>239</v>
       </c>
@@ -6143,13 +6171,13 @@
         <v>111</v>
       </c>
       <c r="F240">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G240">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A241">
         <v>240</v>
       </c>
@@ -6166,13 +6194,13 @@
         <v>111</v>
       </c>
       <c r="F241">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G241">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A242">
         <v>241</v>
       </c>
@@ -6189,13 +6217,13 @@
         <v>111</v>
       </c>
       <c r="F242">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G242">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A243">
         <v>242</v>
       </c>
@@ -6212,13 +6240,13 @@
         <v>111</v>
       </c>
       <c r="F243">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G243">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A244">
         <v>243</v>
       </c>
@@ -6235,13 +6263,13 @@
         <v>111</v>
       </c>
       <c r="F244">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G244">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A245">
         <v>244</v>
       </c>
@@ -6258,13 +6286,13 @@
         <v>111</v>
       </c>
       <c r="F245">
-        <v>8.496130000000001</v>
+        <v>8.4961300000000008</v>
       </c>
       <c r="G245">
         <v>123.3034062</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A246">
         <v>245</v>
       </c>
@@ -6284,10 +6312,10 @@
         <v>20.5762021</v>
       </c>
       <c r="G246">
-        <v>86.755465</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7">
+        <v>86.755465000000001</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A247">
         <v>246</v>
       </c>
@@ -6304,13 +6332,13 @@
         <v>111</v>
       </c>
       <c r="F247">
-        <v>8.496130000000001</v>
+        <v>8.4961300000000008</v>
       </c>
       <c r="G247">
         <v>123.3034062</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A248">
         <v>247</v>
       </c>
@@ -6327,13 +6355,13 @@
         <v>111</v>
       </c>
       <c r="F248">
-        <v>-8.8071792</v>
+        <v>-8.8071792000000002</v>
       </c>
       <c r="G248">
-        <v>148.3087349</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7">
+        <v>148.30873489999999</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A249">
         <v>248</v>
       </c>
@@ -6350,13 +6378,13 @@
         <v>111</v>
       </c>
       <c r="F249">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G249">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A250">
         <v>249</v>
       </c>
@@ -6373,13 +6401,13 @@
         <v>111</v>
       </c>
       <c r="F250">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G250">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A251">
         <v>250</v>
       </c>
@@ -6396,13 +6424,13 @@
         <v>111</v>
       </c>
       <c r="F251">
-        <v>10.3156992</v>
+        <v>10.315699199999999</v>
       </c>
       <c r="G251">
-        <v>123.8854366</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7">
+        <v>123.88543660000001</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A252">
         <v>251</v>
       </c>
@@ -6419,7 +6447,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A253">
         <v>252</v>
       </c>
@@ -6436,13 +6464,13 @@
         <v>111</v>
       </c>
       <c r="F253">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G253">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A254">
         <v>253</v>
       </c>
@@ -6465,7 +6493,7 @@
         <v>172.9716617</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A255">
         <v>254</v>
       </c>
@@ -6482,13 +6510,13 @@
         <v>111</v>
       </c>
       <c r="F255">
-        <v>11.4653625</v>
+        <v>11.465362499999999</v>
       </c>
       <c r="G255">
-        <v>162.189</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7">
+        <v>162.18899999999999</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A256">
         <v>255</v>
       </c>
@@ -6505,13 +6533,13 @@
         <v>111</v>
       </c>
       <c r="F256">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G256">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A257">
         <v>256</v>
       </c>
@@ -6528,13 +6556,13 @@
         <v>111</v>
       </c>
       <c r="F257">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G257">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A258">
         <v>257</v>
       </c>
@@ -6551,13 +6579,13 @@
         <v>111</v>
       </c>
       <c r="F258">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G258">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A259">
         <v>258</v>
       </c>
@@ -6574,13 +6602,13 @@
         <v>111</v>
       </c>
       <c r="F259">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G259">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A260">
         <v>259</v>
       </c>
@@ -6603,7 +6631,7 @@
         <v>145.7467259</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A261">
         <v>260</v>
       </c>
@@ -6626,7 +6654,7 @@
         <v>172.9716617</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A262">
         <v>261</v>
       </c>
@@ -6643,13 +6671,13 @@
         <v>111</v>
       </c>
       <c r="F262">
-        <v>7.0736114</v>
+        <v>7.0736113999999999</v>
       </c>
       <c r="G262">
         <v>125.6110248</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A263">
         <v>262</v>
       </c>
@@ -6672,7 +6700,7 @@
         <v>145.7467259</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A264">
         <v>263</v>
       </c>
@@ -6695,7 +6723,7 @@
         <v>145.7467259</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A265">
         <v>264</v>
       </c>
@@ -6712,13 +6740,13 @@
         <v>111</v>
       </c>
       <c r="F265">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G265">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A266">
         <v>265</v>
       </c>
@@ -6735,7 +6763,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A267">
         <v>266</v>
       </c>
@@ -6758,7 +6786,7 @@
         <v>172.9716617</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A268">
         <v>267</v>
       </c>
@@ -6781,7 +6809,7 @@
         <v>145.7467259</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A269">
         <v>268</v>
       </c>
@@ -6798,13 +6826,13 @@
         <v>111</v>
       </c>
       <c r="F269">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G269">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A270">
         <v>269</v>
       </c>
@@ -6821,13 +6849,13 @@
         <v>111</v>
       </c>
       <c r="F270">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G270">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A271">
         <v>270</v>
       </c>
@@ -6850,7 +6878,7 @@
         <v>172.9716617</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A272">
         <v>271</v>
       </c>
@@ -6867,13 +6895,13 @@
         <v>111</v>
       </c>
       <c r="F272">
-        <v>11.4653625</v>
+        <v>11.465362499999999</v>
       </c>
       <c r="G272">
-        <v>162.189</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7">
+        <v>162.18899999999999</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A273">
         <v>272</v>
       </c>
@@ -6890,13 +6918,13 @@
         <v>111</v>
       </c>
       <c r="F273">
-        <v>7.514979999999999</v>
+        <v>7.5149799999999987</v>
       </c>
       <c r="G273">
-        <v>134.58252</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7">
+        <v>134.58251999999999</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A274">
         <v>273</v>
       </c>
@@ -6913,13 +6941,13 @@
         <v>111</v>
       </c>
       <c r="F274">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G274">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A275">
         <v>274</v>
       </c>
@@ -6936,13 +6964,13 @@
         <v>111</v>
       </c>
       <c r="F275">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G275">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A276">
         <v>275</v>
       </c>
@@ -6959,7 +6987,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A277">
         <v>276</v>
       </c>
@@ -6982,7 +7010,7 @@
         <v>145.7467259</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A278">
         <v>277</v>
       </c>
@@ -6999,13 +7027,13 @@
         <v>111</v>
       </c>
       <c r="F278">
-        <v>24.8751844</v>
+        <v>24.875184399999998</v>
       </c>
       <c r="G278">
-        <v>93.89289789999999</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7">
+        <v>93.892897899999994</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A279">
         <v>278</v>
       </c>
@@ -7022,7 +7050,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A280">
         <v>279</v>
       </c>
@@ -7039,13 +7067,13 @@
         <v>111</v>
       </c>
       <c r="F280">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G280">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A281">
         <v>280</v>
       </c>
@@ -7068,7 +7096,7 @@
         <v>172.9716617</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A282">
         <v>281</v>
       </c>
@@ -7085,7 +7113,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A283">
         <v>282</v>
       </c>
@@ -7102,13 +7130,13 @@
         <v>111</v>
       </c>
       <c r="F283">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G283">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A284">
         <v>283</v>
       </c>
@@ -7131,7 +7159,7 @@
         <v>172.9716617</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A285">
         <v>284</v>
       </c>
@@ -7148,13 +7176,13 @@
         <v>111</v>
       </c>
       <c r="F285">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G285">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A286">
         <v>285</v>
       </c>
@@ -7171,13 +7199,13 @@
         <v>111</v>
       </c>
       <c r="F286">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G286">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A287">
         <v>286</v>
       </c>
@@ -7194,13 +7222,13 @@
         <v>111</v>
       </c>
       <c r="F287">
-        <v>3.371485</v>
+        <v>3.3714849999999998</v>
       </c>
       <c r="G287">
         <v>172.9850994</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A288">
         <v>287</v>
       </c>
@@ -7217,13 +7245,13 @@
         <v>111</v>
       </c>
       <c r="F288">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G288">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A289">
         <v>288</v>
       </c>
@@ -7240,13 +7268,13 @@
         <v>111</v>
       </c>
       <c r="F289">
-        <v>-7.55758</v>
+        <v>22.627277200000002</v>
       </c>
       <c r="G289">
-        <v>109.9288</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7">
+        <v>120.30143750000001</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A290">
         <v>289</v>
       </c>
@@ -7269,7 +7297,7 @@
         <v>172.9716617</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A291">
         <v>290</v>
       </c>
@@ -7286,13 +7314,13 @@
         <v>111</v>
       </c>
       <c r="F291">
-        <v>-8.8071792</v>
+        <v>-8.8071792000000002</v>
       </c>
       <c r="G291">
-        <v>148.3087349</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7">
+        <v>148.30873489999999</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A292">
         <v>291</v>
       </c>
@@ -7309,7 +7337,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A293">
         <v>292</v>
       </c>
@@ -7326,13 +7354,13 @@
         <v>111</v>
       </c>
       <c r="F293">
-        <v>-8.8071792</v>
+        <v>-8.8071792000000002</v>
       </c>
       <c r="G293">
-        <v>148.3087349</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7">
+        <v>148.30873489999999</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A294">
         <v>293</v>
       </c>
@@ -7349,13 +7377,13 @@
         <v>111</v>
       </c>
       <c r="F294">
-        <v>-33.137551</v>
+        <v>-33.137551000000002</v>
       </c>
       <c r="G294">
         <v>81.826172</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A295">
         <v>294</v>
       </c>
@@ -7372,13 +7400,13 @@
         <v>111</v>
       </c>
       <c r="F295">
-        <v>-8.8071792</v>
+        <v>-8.8071792000000002</v>
       </c>
       <c r="G295">
-        <v>148.3087349</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7">
+        <v>148.30873489999999</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A296">
         <v>295</v>
       </c>
@@ -7401,7 +7429,7 @@
         <v>172.9716617</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A297">
         <v>296</v>
       </c>
@@ -7418,13 +7446,13 @@
         <v>111</v>
       </c>
       <c r="F297">
-        <v>7.514979999999999</v>
+        <v>7.5149799999999987</v>
       </c>
       <c r="G297">
-        <v>134.58252</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7">
+        <v>134.58251999999999</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A298">
         <v>297</v>
       </c>
@@ -7441,13 +7469,13 @@
         <v>111</v>
       </c>
       <c r="F298">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G298">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A299">
         <v>298</v>
       </c>
@@ -7464,13 +7492,13 @@
         <v>111</v>
       </c>
       <c r="F299">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G299">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A300">
         <v>299</v>
       </c>
@@ -7487,13 +7515,13 @@
         <v>111</v>
       </c>
       <c r="F300">
-        <v>7.514979999999999</v>
+        <v>7.5149799999999987</v>
       </c>
       <c r="G300">
-        <v>134.58252</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7">
+        <v>134.58251999999999</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A301">
         <v>300</v>
       </c>
@@ -7510,13 +7538,13 @@
         <v>111</v>
       </c>
       <c r="F301">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G301">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A302">
         <v>301</v>
       </c>
@@ -7533,13 +7561,13 @@
         <v>111</v>
       </c>
       <c r="F302">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G302">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A303">
         <v>302</v>
       </c>
@@ -7556,13 +7584,13 @@
         <v>111</v>
       </c>
       <c r="F303">
-        <v>-8.8071792</v>
+        <v>-8.8071792000000002</v>
       </c>
       <c r="G303">
-        <v>148.3087349</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7">
+        <v>148.30873489999999</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A304">
         <v>303</v>
       </c>
@@ -7579,13 +7607,13 @@
         <v>111</v>
       </c>
       <c r="F304">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G304">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A305">
         <v>304</v>
       </c>
@@ -7602,13 +7630,13 @@
         <v>111</v>
       </c>
       <c r="F305">
-        <v>7.514979999999999</v>
+        <v>7.5149799999999987</v>
       </c>
       <c r="G305">
-        <v>134.58252</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7">
+        <v>134.58251999999999</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A306">
         <v>305</v>
       </c>
@@ -7631,7 +7659,7 @@
         <v>172.9716617</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A307">
         <v>306</v>
       </c>
@@ -7648,13 +7676,13 @@
         <v>111</v>
       </c>
       <c r="F307">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G307">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A308">
         <v>307</v>
       </c>
@@ -7677,7 +7705,7 @@
         <v>172.9716617</v>
       </c>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A309">
         <v>308</v>
       </c>
@@ -7694,13 +7722,13 @@
         <v>111</v>
       </c>
       <c r="F309">
-        <v>11.4653625</v>
+        <v>11.465362499999999</v>
       </c>
       <c r="G309">
-        <v>162.189</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7">
+        <v>162.18899999999999</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A310">
         <v>309</v>
       </c>
@@ -7717,13 +7745,13 @@
         <v>111</v>
       </c>
       <c r="F310">
-        <v>-4.1999648</v>
+        <v>-4.1999648000000001</v>
       </c>
       <c r="G310">
-        <v>152.1644612</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7">
+        <v>152.16446120000001</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A311">
         <v>310</v>
       </c>
@@ -7740,13 +7768,13 @@
         <v>111</v>
       </c>
       <c r="F311">
-        <v>-5.7465904</v>
+        <v>-5.7465903999999997</v>
       </c>
       <c r="G311">
-        <v>150.7679216</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7">
+        <v>150.76792159999999</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A312">
         <v>311</v>
       </c>
@@ -7763,13 +7791,13 @@
         <v>111</v>
       </c>
       <c r="F312">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G312">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A313">
         <v>312</v>
       </c>
@@ -7786,13 +7814,13 @@
         <v>111</v>
       </c>
       <c r="F313">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G313">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A314">
         <v>313</v>
       </c>
@@ -7809,13 +7837,13 @@
         <v>111</v>
       </c>
       <c r="F314">
-        <v>-8.8071792</v>
+        <v>-8.8071792000000002</v>
       </c>
       <c r="G314">
-        <v>148.3087349</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7">
+        <v>148.30873489999999</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A315">
         <v>314</v>
       </c>
@@ -7832,13 +7860,13 @@
         <v>111</v>
       </c>
       <c r="F315">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G315">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A316">
         <v>315</v>
       </c>
@@ -7855,13 +7883,13 @@
         <v>111</v>
       </c>
       <c r="F316">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G316">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A317">
         <v>316</v>
       </c>
@@ -7878,13 +7906,13 @@
         <v>111</v>
       </c>
       <c r="F317">
-        <v>9.396247199999999</v>
+        <v>9.3962471999999995</v>
       </c>
       <c r="G317">
-        <v>167.4650822</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7">
+        <v>167.46508220000001</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A318">
         <v>317</v>
       </c>
@@ -7901,13 +7929,13 @@
         <v>111</v>
       </c>
       <c r="F318">
-        <v>10.3156992</v>
+        <v>10.315699199999999</v>
       </c>
       <c r="G318">
-        <v>123.8854366</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7">
+        <v>123.88543660000001</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A319">
         <v>318</v>
       </c>
@@ -7924,13 +7952,13 @@
         <v>111</v>
       </c>
       <c r="F319">
-        <v>23.6523707</v>
+        <v>23.652370699999999</v>
       </c>
       <c r="G319">
         <v>-166.547146</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A320">
         <v>319</v>
       </c>
@@ -7953,7 +7981,7 @@
         <v>172.9716617</v>
       </c>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A321">
         <v>320</v>
       </c>
@@ -7970,13 +7998,13 @@
         <v>111</v>
       </c>
       <c r="F321">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G321">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A322">
         <v>321</v>
       </c>
@@ -7999,7 +8027,7 @@
         <v>145.7467259</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A323">
         <v>322</v>
       </c>
@@ -8016,13 +8044,13 @@
         <v>111</v>
       </c>
       <c r="F323">
-        <v>-8.8071792</v>
+        <v>-8.8071792000000002</v>
       </c>
       <c r="G323">
-        <v>148.3087349</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7">
+        <v>148.30873489999999</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A324">
         <v>323</v>
       </c>
@@ -8039,13 +8067,13 @@
         <v>111</v>
       </c>
       <c r="F324">
-        <v>-8.8071792</v>
+        <v>-8.8071792000000002</v>
       </c>
       <c r="G324">
-        <v>148.3087349</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7">
+        <v>148.30873489999999</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A325">
         <v>324</v>
       </c>
@@ -8062,13 +8090,13 @@
         <v>111</v>
       </c>
       <c r="F325">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G325">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A326">
         <v>325</v>
       </c>
@@ -8085,13 +8113,13 @@
         <v>111</v>
       </c>
       <c r="F326">
-        <v>-8.8071792</v>
+        <v>-8.8071792000000002</v>
       </c>
       <c r="G326">
-        <v>148.3087349</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7">
+        <v>148.30873489999999</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A327">
         <v>326</v>
       </c>
@@ -8108,13 +8136,13 @@
         <v>111</v>
       </c>
       <c r="F327">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G327">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A328">
         <v>327</v>
       </c>
@@ -8137,7 +8165,7 @@
         <v>172.9716617</v>
       </c>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A329">
         <v>328</v>
       </c>
@@ -8160,7 +8188,7 @@
         <v>172.9716617</v>
       </c>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A330">
         <v>329</v>
       </c>
@@ -8177,13 +8205,13 @@
         <v>111</v>
       </c>
       <c r="F330">
-        <v>11.4653625</v>
+        <v>11.465362499999999</v>
       </c>
       <c r="G330">
-        <v>162.189</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7">
+        <v>162.18899999999999</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A331">
         <v>330</v>
       </c>
@@ -8200,13 +8228,13 @@
         <v>111</v>
       </c>
       <c r="F331">
-        <v>7.514979999999999</v>
+        <v>7.5149799999999987</v>
       </c>
       <c r="G331">
-        <v>134.58252</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7">
+        <v>134.58251999999999</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A332">
         <v>331</v>
       </c>
@@ -8229,7 +8257,7 @@
         <v>145.7467259</v>
       </c>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A333">
         <v>332</v>
       </c>
@@ -8252,7 +8280,7 @@
         <v>172.9716617</v>
       </c>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A334">
         <v>333</v>
       </c>
@@ -8269,13 +8297,13 @@
         <v>111</v>
       </c>
       <c r="F334">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G334">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A335">
         <v>334</v>
       </c>
@@ -8298,7 +8326,7 @@
         <v>102.0718</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A336">
         <v>335</v>
       </c>
@@ -8321,7 +8349,7 @@
         <v>172.9716617</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A337">
         <v>336</v>
       </c>
@@ -8338,13 +8366,13 @@
         <v>111</v>
       </c>
       <c r="F337">
-        <v>7.514979999999999</v>
+        <v>7.5149799999999987</v>
       </c>
       <c r="G337">
-        <v>134.58252</v>
-      </c>
-    </row>
-    <row r="338" spans="1:7">
+        <v>134.58251999999999</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A338">
         <v>337</v>
       </c>
@@ -8361,13 +8389,13 @@
         <v>111</v>
       </c>
       <c r="F338">
-        <v>8.496130000000001</v>
+        <v>8.4961300000000008</v>
       </c>
       <c r="G338">
         <v>123.3034062</v>
       </c>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A339">
         <v>338</v>
       </c>
@@ -8384,13 +8412,13 @@
         <v>111</v>
       </c>
       <c r="F339">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G339">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="340" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A340">
         <v>339</v>
       </c>
@@ -8407,13 +8435,13 @@
         <v>111</v>
       </c>
       <c r="F340">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G340">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="341" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A341">
         <v>340</v>
       </c>
@@ -8436,7 +8464,7 @@
         <v>172.9716617</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A342">
         <v>341</v>
       </c>
@@ -8453,13 +8481,13 @@
         <v>111</v>
       </c>
       <c r="F342">
-        <v>4.307074</v>
+        <v>4.3070740000000001</v>
       </c>
       <c r="G342">
-        <v>132.3103</v>
-      </c>
-    </row>
-    <row r="343" spans="1:7">
+        <v>132.31030000000001</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A343">
         <v>342</v>
       </c>
@@ -8476,13 +8504,13 @@
         <v>111</v>
       </c>
       <c r="F343">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G343">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="344" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A344">
         <v>343</v>
       </c>
@@ -8499,13 +8527,13 @@
         <v>111</v>
       </c>
       <c r="F344">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G344">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A345">
         <v>344</v>
       </c>
@@ -8522,13 +8550,13 @@
         <v>111</v>
       </c>
       <c r="F345">
-        <v>-8.8071792</v>
+        <v>-8.8071792000000002</v>
       </c>
       <c r="G345">
-        <v>148.3087349</v>
-      </c>
-    </row>
-    <row r="346" spans="1:7">
+        <v>148.30873489999999</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A346">
         <v>345</v>
       </c>
@@ -8545,13 +8573,13 @@
         <v>111</v>
       </c>
       <c r="F346">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G346">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="347" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A347">
         <v>346</v>
       </c>
@@ -8574,7 +8602,7 @@
         <v>172.9716617</v>
       </c>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A348">
         <v>347</v>
       </c>
@@ -8591,13 +8619,13 @@
         <v>111</v>
       </c>
       <c r="F348">
-        <v>-4.1999648</v>
+        <v>-4.1999648000000001</v>
       </c>
       <c r="G348">
-        <v>152.1644612</v>
-      </c>
-    </row>
-    <row r="349" spans="1:7">
+        <v>152.16446120000001</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A349">
         <v>348</v>
       </c>
@@ -8614,13 +8642,13 @@
         <v>111</v>
       </c>
       <c r="F349">
-        <v>9.19167608805486</v>
+        <v>9.1916760880548605</v>
       </c>
       <c r="G349">
         <v>167.42510055475</v>
       </c>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A350">
         <v>349</v>
       </c>
@@ -8637,13 +8665,13 @@
         <v>111</v>
       </c>
       <c r="F350">
-        <v>7.514979999999999</v>
+        <v>7.5149799999999987</v>
       </c>
       <c r="G350">
-        <v>134.58252</v>
-      </c>
-    </row>
-    <row r="351" spans="1:7">
+        <v>134.58251999999999</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A351">
         <v>350</v>
       </c>
@@ -8660,13 +8688,13 @@
         <v>111</v>
       </c>
       <c r="F351">
-        <v>-0.589724</v>
+        <v>-0.58972400000000003</v>
       </c>
       <c r="G351">
         <v>101.3431058</v>
       </c>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A352">
         <v>351</v>
       </c>
@@ -8689,7 +8717,7 @@
         <v>172.9716617</v>
       </c>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A353">
         <v>352</v>
       </c>
@@ -8706,13 +8734,13 @@
         <v>111</v>
       </c>
       <c r="F353">
-        <v>7.514979999999999</v>
+        <v>7.5149799999999987</v>
       </c>
       <c r="G353">
-        <v>134.58252</v>
-      </c>
-    </row>
-    <row r="354" spans="1:7">
+        <v>134.58251999999999</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A354">
         <v>353</v>
       </c>
@@ -8735,7 +8763,7 @@
         <v>172.9716617</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A355">
         <v>354</v>
       </c>
@@ -8752,13 +8780,13 @@
         <v>111</v>
       </c>
       <c r="F355">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G355">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A356">
         <v>355</v>
       </c>
@@ -8775,13 +8803,13 @@
         <v>111</v>
       </c>
       <c r="F356">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G356">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="357" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A357">
         <v>356</v>
       </c>
@@ -8798,13 +8826,13 @@
         <v>111</v>
       </c>
       <c r="F357">
-        <v>8.496130000000001</v>
+        <v>8.4961300000000008</v>
       </c>
       <c r="G357">
         <v>123.3034062</v>
       </c>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A358">
         <v>357</v>
       </c>
@@ -8821,13 +8849,13 @@
         <v>111</v>
       </c>
       <c r="F358">
-        <v>-8.8071792</v>
+        <v>-8.8071792000000002</v>
       </c>
       <c r="G358">
-        <v>148.3087349</v>
-      </c>
-    </row>
-    <row r="359" spans="1:7">
+        <v>148.30873489999999</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A359">
         <v>358</v>
       </c>
@@ -8850,7 +8878,7 @@
         <v>145.7467259</v>
       </c>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A360">
         <v>359</v>
       </c>
@@ -8867,13 +8895,13 @@
         <v>111</v>
       </c>
       <c r="F360">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G360">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="361" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A361">
         <v>360</v>
       </c>
@@ -8893,10 +8921,10 @@
         <v>2.189594</v>
       </c>
       <c r="G361">
-        <v>102.2500868</v>
-      </c>
-    </row>
-    <row r="362" spans="1:7">
+        <v>102.25008680000001</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A362">
         <v>361</v>
       </c>
@@ -8913,13 +8941,13 @@
         <v>111</v>
       </c>
       <c r="F362">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G362">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="363" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A363">
         <v>362</v>
       </c>
@@ -8942,7 +8970,7 @@
         <v>172.9716617</v>
       </c>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A364">
         <v>363</v>
       </c>
@@ -8959,13 +8987,13 @@
         <v>111</v>
       </c>
       <c r="F364">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G364">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="365" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A365">
         <v>364</v>
       </c>
@@ -8982,7 +9010,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A366">
         <v>365</v>
       </c>
@@ -8999,13 +9027,13 @@
         <v>111</v>
       </c>
       <c r="F366">
-        <v>-8.8071792</v>
+        <v>-8.8071792000000002</v>
       </c>
       <c r="G366">
-        <v>148.3087349</v>
-      </c>
-    </row>
-    <row r="367" spans="1:7">
+        <v>148.30873489999999</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A367">
         <v>366</v>
       </c>
@@ -9022,13 +9050,13 @@
         <v>111</v>
       </c>
       <c r="F367">
-        <v>15.0043455</v>
+        <v>15.004345499999999</v>
       </c>
       <c r="G367">
         <v>145.6356577</v>
       </c>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A368">
         <v>367</v>
       </c>
@@ -9045,13 +9073,13 @@
         <v>111</v>
       </c>
       <c r="F368">
-        <v>16.5662</v>
+        <v>16.566199999999998</v>
       </c>
       <c r="G368">
-        <v>121.263</v>
-      </c>
-    </row>
-    <row r="369" spans="1:7">
+        <v>121.26300000000001</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A369">
         <v>368</v>
       </c>
@@ -9074,7 +9102,7 @@
         <v>172.9716617</v>
       </c>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A370">
         <v>369</v>
       </c>
@@ -9091,13 +9119,13 @@
         <v>111</v>
       </c>
       <c r="F370">
-        <v>7.514979999999999</v>
+        <v>7.5149799999999987</v>
       </c>
       <c r="G370">
-        <v>134.58252</v>
-      </c>
-    </row>
-    <row r="371" spans="1:7">
+        <v>134.58251999999999</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A371">
         <v>370</v>
       </c>
@@ -9114,13 +9142,13 @@
         <v>111</v>
       </c>
       <c r="F371">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G371">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A372">
         <v>371</v>
       </c>
@@ -9137,13 +9165,13 @@
         <v>111</v>
       </c>
       <c r="F372">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G372">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A373">
         <v>372</v>
       </c>
@@ -9160,13 +9188,13 @@
         <v>111</v>
       </c>
       <c r="F373">
-        <v>-8.8071792</v>
+        <v>-8.8071792000000002</v>
       </c>
       <c r="G373">
-        <v>148.3087349</v>
-      </c>
-    </row>
-    <row r="374" spans="1:7">
+        <v>148.30873489999999</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A374">
         <v>373</v>
       </c>
@@ -9189,7 +9217,7 @@
         <v>145.7467259</v>
       </c>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A375">
         <v>374</v>
       </c>
@@ -9206,13 +9234,13 @@
         <v>111</v>
       </c>
       <c r="F375">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G375">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A376">
         <v>375</v>
       </c>
@@ -9229,13 +9257,13 @@
         <v>111</v>
       </c>
       <c r="F376">
-        <v>-8.8071792</v>
+        <v>-8.8071792000000002</v>
       </c>
       <c r="G376">
-        <v>148.3087349</v>
-      </c>
-    </row>
-    <row r="377" spans="1:7">
+        <v>148.30873489999999</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A377">
         <v>376</v>
       </c>
@@ -9252,13 +9280,13 @@
         <v>111</v>
       </c>
       <c r="F377">
-        <v>11.4653625</v>
+        <v>11.465362499999999</v>
       </c>
       <c r="G377">
-        <v>162.189</v>
-      </c>
-    </row>
-    <row r="378" spans="1:7">
+        <v>162.18899999999999</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A378">
         <v>377</v>
       </c>
@@ -9281,7 +9309,7 @@
         <v>172.9716617</v>
       </c>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A379">
         <v>378</v>
       </c>
@@ -9298,13 +9326,13 @@
         <v>111</v>
       </c>
       <c r="F379">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G379">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A380">
         <v>379</v>
       </c>
@@ -9321,13 +9349,13 @@
         <v>111</v>
       </c>
       <c r="F380">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G380">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="381" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A381">
         <v>380</v>
       </c>
@@ -9344,13 +9372,13 @@
         <v>111</v>
       </c>
       <c r="F381">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G381">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="382" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A382">
         <v>381</v>
       </c>
@@ -9367,13 +9395,13 @@
         <v>111</v>
       </c>
       <c r="F382">
-        <v>7.002290599999999</v>
+        <v>7.0022905999999994</v>
       </c>
       <c r="G382">
-        <v>134.2431628</v>
-      </c>
-    </row>
-    <row r="383" spans="1:7">
+        <v>134.24316279999999</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A383">
         <v>382</v>
       </c>
@@ -9396,7 +9424,7 @@
         <v>145.7467259</v>
       </c>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A384">
         <v>383</v>
       </c>
@@ -9419,7 +9447,7 @@
         <v>114.404754</v>
       </c>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A385">
         <v>384</v>
       </c>
@@ -9436,13 +9464,13 @@
         <v>111</v>
       </c>
       <c r="F385">
-        <v>16.4724364</v>
+        <v>16.472436399999999</v>
       </c>
       <c r="G385">
         <v>145.3395481</v>
       </c>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A386">
         <v>385</v>
       </c>
@@ -9459,13 +9487,13 @@
         <v>111</v>
       </c>
       <c r="F386">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G386">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="387" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A387">
         <v>386</v>
       </c>
@@ -9482,13 +9510,13 @@
         <v>111</v>
       </c>
       <c r="F387">
-        <v>-8.8071792</v>
+        <v>-8.8071792000000002</v>
       </c>
       <c r="G387">
-        <v>148.3087349</v>
-      </c>
-    </row>
-    <row r="388" spans="1:7">
+        <v>148.30873489999999</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A388">
         <v>387</v>
       </c>
@@ -9505,13 +9533,13 @@
         <v>111</v>
       </c>
       <c r="F388">
-        <v>15.0043455</v>
+        <v>15.004345499999999</v>
       </c>
       <c r="G388">
         <v>145.6356577</v>
       </c>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A389">
         <v>388</v>
       </c>
@@ -9528,13 +9556,13 @@
         <v>111</v>
       </c>
       <c r="F389">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G389">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="390" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A390">
         <v>389</v>
       </c>
@@ -9551,13 +9579,13 @@
         <v>111</v>
       </c>
       <c r="F390">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G390">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="391" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A391">
         <v>390</v>
       </c>
@@ -9574,13 +9602,13 @@
         <v>111</v>
       </c>
       <c r="F391">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G391">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="392" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A392">
         <v>391</v>
       </c>
@@ -9597,7 +9625,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A393">
         <v>392</v>
       </c>
@@ -9614,13 +9642,13 @@
         <v>111</v>
       </c>
       <c r="F393">
-        <v>7.514979999999999</v>
+        <v>7.5149799999999987</v>
       </c>
       <c r="G393">
-        <v>134.58252</v>
-      </c>
-    </row>
-    <row r="394" spans="1:7">
+        <v>134.58251999999999</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A394">
         <v>393</v>
       </c>
@@ -9643,7 +9671,7 @@
         <v>172.9716617</v>
       </c>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A395">
         <v>394</v>
       </c>
@@ -9660,13 +9688,13 @@
         <v>111</v>
       </c>
       <c r="F395">
-        <v>20.8449115</v>
+        <v>20.844911499999998</v>
       </c>
       <c r="G395">
         <v>106.6880841</v>
       </c>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A396">
         <v>395</v>
       </c>
@@ -9689,7 +9717,7 @@
         <v>145.7467259</v>
       </c>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A397">
         <v>396</v>
       </c>
@@ -9709,10 +9737,10 @@
         <v>21.6509982</v>
       </c>
       <c r="G397">
-        <v>121.03351</v>
-      </c>
-    </row>
-    <row r="398" spans="1:7">
+        <v>121.03351000000001</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A398">
         <v>397</v>
       </c>
@@ -9729,7 +9757,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A399">
         <v>398</v>
       </c>
@@ -9746,13 +9774,13 @@
         <v>111</v>
       </c>
       <c r="F399">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G399">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="400" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A400">
         <v>399</v>
       </c>
@@ -9769,13 +9797,13 @@
         <v>111</v>
       </c>
       <c r="F400">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G400">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="401" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A401">
         <v>400</v>
       </c>
@@ -9792,13 +9820,13 @@
         <v>111</v>
       </c>
       <c r="F401">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G401">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="402" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A402">
         <v>401</v>
       </c>
@@ -9815,13 +9843,13 @@
         <v>111</v>
       </c>
       <c r="F402">
-        <v>-0.522778</v>
+        <v>-0.52277799999999996</v>
       </c>
       <c r="G402">
-        <v>166.931503</v>
-      </c>
-    </row>
-    <row r="403" spans="1:7">
+        <v>166.93150299999999</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A403">
         <v>402</v>
       </c>
@@ -9838,13 +9866,13 @@
         <v>111</v>
       </c>
       <c r="F403">
-        <v>32.9137988</v>
+        <v>32.913798800000002</v>
       </c>
       <c r="G403">
         <v>130.6524512</v>
       </c>
     </row>
-    <row r="404" spans="1:7">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A404">
         <v>403</v>
       </c>
@@ -9861,13 +9889,13 @@
         <v>111</v>
       </c>
       <c r="F404">
-        <v>7.514979999999999</v>
+        <v>7.5149799999999987</v>
       </c>
       <c r="G404">
-        <v>134.58252</v>
-      </c>
-    </row>
-    <row r="405" spans="1:7">
+        <v>134.58251999999999</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A405">
         <v>404</v>
       </c>
@@ -9884,13 +9912,13 @@
         <v>111</v>
       </c>
       <c r="F405">
-        <v>7.514979999999999</v>
+        <v>7.5149799999999987</v>
       </c>
       <c r="G405">
-        <v>134.58252</v>
-      </c>
-    </row>
-    <row r="406" spans="1:7">
+        <v>134.58251999999999</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A406">
         <v>405</v>
       </c>
@@ -9907,13 +9935,13 @@
         <v>111</v>
       </c>
       <c r="F406">
-        <v>-8.8071792</v>
+        <v>-8.8071792000000002</v>
       </c>
       <c r="G406">
-        <v>148.3087349</v>
-      </c>
-    </row>
-    <row r="407" spans="1:7">
+        <v>148.30873489999999</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A407">
         <v>406</v>
       </c>
@@ -9930,13 +9958,13 @@
         <v>111</v>
       </c>
       <c r="F407">
-        <v>4.307074</v>
+        <v>4.3070740000000001</v>
       </c>
       <c r="G407">
-        <v>132.3103</v>
-      </c>
-    </row>
-    <row r="408" spans="1:7">
+        <v>132.31030000000001</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A408">
         <v>407</v>
       </c>
@@ -9959,7 +9987,7 @@
         <v>172.9716617</v>
       </c>
     </row>
-    <row r="409" spans="1:7">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A409">
         <v>408</v>
       </c>
@@ -9979,10 +10007,10 @@
         <v>-1.2379274</v>
       </c>
       <c r="G409">
-        <v>116.8528526</v>
-      </c>
-    </row>
-    <row r="410" spans="1:7">
+        <v>116.85285260000001</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A410">
         <v>409</v>
       </c>
@@ -9999,13 +10027,13 @@
         <v>111</v>
       </c>
       <c r="F410">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G410">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="411" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A411">
         <v>410</v>
       </c>
@@ -10022,13 +10050,13 @@
         <v>111</v>
       </c>
       <c r="F411">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G411">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="412" spans="1:7">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A412">
         <v>411</v>
       </c>
@@ -10045,13 +10073,13 @@
         <v>111</v>
       </c>
       <c r="F412">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G412">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="413" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A413">
         <v>412</v>
       </c>
@@ -10068,13 +10096,13 @@
         <v>111</v>
       </c>
       <c r="F413">
-        <v>7.002290599999999</v>
+        <v>7.0022905999999994</v>
       </c>
       <c r="G413">
-        <v>134.2431628</v>
-      </c>
-    </row>
-    <row r="414" spans="1:7">
+        <v>134.24316279999999</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A414">
         <v>413</v>
       </c>
@@ -10091,13 +10119,13 @@
         <v>111</v>
       </c>
       <c r="F414">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G414">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="415" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A415">
         <v>414</v>
       </c>
@@ -10114,13 +10142,13 @@
         <v>111</v>
       </c>
       <c r="F415">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G415">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="416" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A416">
         <v>415</v>
       </c>
@@ -10137,13 +10165,13 @@
         <v>111</v>
       </c>
       <c r="F416">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G416">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="417" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A417">
         <v>416</v>
       </c>
@@ -10166,7 +10194,7 @@
         <v>172.9716617</v>
       </c>
     </row>
-    <row r="418" spans="1:7">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A418">
         <v>417</v>
       </c>
@@ -10183,13 +10211,13 @@
         <v>111</v>
       </c>
       <c r="F418">
-        <v>-8.8071792</v>
+        <v>-8.8071792000000002</v>
       </c>
       <c r="G418">
-        <v>148.3087349</v>
-      </c>
-    </row>
-    <row r="419" spans="1:7">
+        <v>148.30873489999999</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A419">
         <v>418</v>
       </c>
@@ -10206,13 +10234,13 @@
         <v>111</v>
       </c>
       <c r="F419">
-        <v>7.514979999999999</v>
+        <v>7.5149799999999987</v>
       </c>
       <c r="G419">
-        <v>134.58252</v>
-      </c>
-    </row>
-    <row r="420" spans="1:7">
+        <v>134.58251999999999</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A420">
         <v>419</v>
       </c>
@@ -10229,13 +10257,13 @@
         <v>111</v>
       </c>
       <c r="F420">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G420">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="421" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A421">
         <v>420</v>
       </c>
@@ -10252,13 +10280,13 @@
         <v>111</v>
       </c>
       <c r="F421">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G421">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="422" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A422">
         <v>421</v>
       </c>
@@ -10275,13 +10303,13 @@
         <v>111</v>
       </c>
       <c r="F422">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G422">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="423" spans="1:7">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A423">
         <v>422</v>
       </c>
@@ -10298,13 +10326,13 @@
         <v>111</v>
       </c>
       <c r="F423">
-        <v>7.0736114</v>
+        <v>7.0736113999999999</v>
       </c>
       <c r="G423">
         <v>125.6110248</v>
       </c>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A424">
         <v>423</v>
       </c>
@@ -10321,13 +10349,13 @@
         <v>111</v>
       </c>
       <c r="F424">
-        <v>7.002290599999999</v>
+        <v>7.0022905999999994</v>
       </c>
       <c r="G424">
-        <v>134.2431628</v>
-      </c>
-    </row>
-    <row r="425" spans="1:7">
+        <v>134.24316279999999</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A425">
         <v>424</v>
       </c>
@@ -10344,13 +10372,13 @@
         <v>111</v>
       </c>
       <c r="F425">
-        <v>-9.645709999999999</v>
+        <v>-9.6457099999999993</v>
       </c>
       <c r="G425">
         <v>160.156194</v>
       </c>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A426">
         <v>425</v>
       </c>
@@ -10367,13 +10395,13 @@
         <v>111</v>
       </c>
       <c r="F426">
-        <v>10.3156992</v>
+        <v>10.315699199999999</v>
       </c>
       <c r="G426">
-        <v>123.8854366</v>
-      </c>
-    </row>
-    <row r="427" spans="1:7">
+        <v>123.88543660000001</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A427">
         <v>426</v>
       </c>
@@ -10390,13 +10418,13 @@
         <v>111</v>
       </c>
       <c r="F427">
-        <v>7.514979999999999</v>
+        <v>7.5149799999999987</v>
       </c>
       <c r="G427">
-        <v>134.58252</v>
-      </c>
-    </row>
-    <row r="428" spans="1:7">
+        <v>134.58251999999999</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A428">
         <v>427</v>
       </c>
@@ -10413,13 +10441,13 @@
         <v>111</v>
       </c>
       <c r="F428">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G428">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="429" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A429">
         <v>428</v>
       </c>
@@ -10436,13 +10464,13 @@
         <v>111</v>
       </c>
       <c r="F429">
-        <v>9.19167608805486</v>
+        <v>9.1916760880548605</v>
       </c>
       <c r="G429">
         <v>167.42510055475</v>
       </c>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A430">
         <v>429</v>
       </c>
@@ -10459,13 +10487,13 @@
         <v>111</v>
       </c>
       <c r="F430">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G430">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="431" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A431">
         <v>430</v>
       </c>
@@ -10482,13 +10510,13 @@
         <v>111</v>
       </c>
       <c r="F431">
-        <v>-8.8071792</v>
+        <v>-8.8071792000000002</v>
       </c>
       <c r="G431">
-        <v>148.3087349</v>
-      </c>
-    </row>
-    <row r="432" spans="1:7">
+        <v>148.30873489999999</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A432">
         <v>431</v>
       </c>
@@ -10505,13 +10533,13 @@
         <v>111</v>
       </c>
       <c r="F432">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G432">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="433" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A433">
         <v>432</v>
       </c>
@@ -10528,13 +10556,13 @@
         <v>111</v>
       </c>
       <c r="F433">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G433">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="434" spans="1:7">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A434">
         <v>433</v>
       </c>
@@ -10551,13 +10579,13 @@
         <v>111</v>
       </c>
       <c r="F434">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G434">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="435" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A435">
         <v>434</v>
       </c>
@@ -10574,13 +10602,13 @@
         <v>111</v>
       </c>
       <c r="F435">
-        <v>7.514979999999999</v>
+        <v>7.5149799999999987</v>
       </c>
       <c r="G435">
-        <v>134.58252</v>
-      </c>
-    </row>
-    <row r="436" spans="1:7">
+        <v>134.58251999999999</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A436">
         <v>435</v>
       </c>
@@ -10597,13 +10625,13 @@
         <v>111</v>
       </c>
       <c r="F436">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G436">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="437" spans="1:7">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A437">
         <v>436</v>
       </c>
@@ -10620,13 +10648,13 @@
         <v>111</v>
       </c>
       <c r="F437">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G437">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="438" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A438">
         <v>437</v>
       </c>
@@ -10643,13 +10671,13 @@
         <v>111</v>
       </c>
       <c r="F438">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G438">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="439" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A439">
         <v>438</v>
       </c>
@@ -10666,13 +10694,13 @@
         <v>111</v>
       </c>
       <c r="F439">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G439">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="440" spans="1:7">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A440">
         <v>439</v>
       </c>
@@ -10689,13 +10717,13 @@
         <v>111</v>
       </c>
       <c r="F440">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G440">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="441" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A441">
         <v>440</v>
       </c>
@@ -10715,10 +10743,10 @@
         <v>14.5995124</v>
       </c>
       <c r="G441">
-        <v>120.9842195</v>
-      </c>
-    </row>
-    <row r="442" spans="1:7">
+        <v>120.98421949999999</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A442">
         <v>441</v>
       </c>
@@ -10735,13 +10763,13 @@
         <v>111</v>
       </c>
       <c r="F442">
-        <v>-8.8071792</v>
+        <v>-8.8071792000000002</v>
       </c>
       <c r="G442">
-        <v>148.3087349</v>
-      </c>
-    </row>
-    <row r="443" spans="1:7">
+        <v>148.30873489999999</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A443">
         <v>442</v>
       </c>
@@ -10758,13 +10786,13 @@
         <v>111</v>
       </c>
       <c r="F443">
-        <v>-8.8071792</v>
+        <v>-8.8071792000000002</v>
       </c>
       <c r="G443">
-        <v>148.3087349</v>
-      </c>
-    </row>
-    <row r="444" spans="1:7">
+        <v>148.30873489999999</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A444">
         <v>443</v>
       </c>
@@ -10781,13 +10809,13 @@
         <v>111</v>
       </c>
       <c r="F444">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G444">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="445" spans="1:7">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A445">
         <v>444</v>
       </c>
@@ -10804,13 +10832,13 @@
         <v>111</v>
       </c>
       <c r="F445">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G445">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="446" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A446">
         <v>445</v>
       </c>
@@ -10827,13 +10855,13 @@
         <v>111</v>
       </c>
       <c r="F446">
-        <v>7.514979999999999</v>
+        <v>7.5149799999999987</v>
       </c>
       <c r="G446">
-        <v>134.58252</v>
-      </c>
-    </row>
-    <row r="447" spans="1:7">
+        <v>134.58251999999999</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A447">
         <v>446</v>
       </c>
@@ -10850,13 +10878,13 @@
         <v>111</v>
       </c>
       <c r="F447">
-        <v>16.4724364</v>
+        <v>16.472436399999999</v>
       </c>
       <c r="G447">
         <v>145.3395481</v>
       </c>
     </row>
-    <row r="448" spans="1:7">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A448">
         <v>447</v>
       </c>
@@ -10879,7 +10907,7 @@
         <v>172.9716617</v>
       </c>
     </row>
-    <row r="449" spans="1:7">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A449">
         <v>448</v>
       </c>
@@ -10896,13 +10924,13 @@
         <v>111</v>
       </c>
       <c r="F449">
-        <v>-4.1999648</v>
+        <v>-4.1999648000000001</v>
       </c>
       <c r="G449">
-        <v>152.1644612</v>
-      </c>
-    </row>
-    <row r="450" spans="1:7">
+        <v>152.16446120000001</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A450">
         <v>449</v>
       </c>
@@ -10919,13 +10947,13 @@
         <v>111</v>
       </c>
       <c r="F450">
-        <v>-27.9988823</v>
+        <v>-8.6752537000000007</v>
       </c>
       <c r="G450">
-        <v>152.6819874</v>
-      </c>
-    </row>
-    <row r="451" spans="1:7">
+        <v>148.4130557</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A451">
         <v>450</v>
       </c>
@@ -10948,7 +10976,7 @@
         <v>172.9716617</v>
       </c>
     </row>
-    <row r="452" spans="1:7">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A452">
         <v>451</v>
       </c>
@@ -10965,13 +10993,13 @@
         <v>111</v>
       </c>
       <c r="F452">
-        <v>16.840939</v>
+        <v>16.840938999999999</v>
       </c>
       <c r="G452">
-        <v>96.173526</v>
-      </c>
-    </row>
-    <row r="453" spans="1:7">
+        <v>96.173525999999995</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A453">
         <v>452</v>
       </c>
@@ -10988,13 +11016,13 @@
         <v>111</v>
       </c>
       <c r="F453">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G453">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="454" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A454">
         <v>453</v>
       </c>
@@ -11011,13 +11039,13 @@
         <v>111</v>
       </c>
       <c r="F454">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G454">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="455" spans="1:7">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A455">
         <v>454</v>
       </c>
@@ -11034,13 +11062,13 @@
         <v>111</v>
       </c>
       <c r="F455">
-        <v>-4.1999648</v>
+        <v>-4.1999648000000001</v>
       </c>
       <c r="G455">
-        <v>152.1644612</v>
-      </c>
-    </row>
-    <row r="456" spans="1:7">
+        <v>152.16446120000001</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A456">
         <v>455</v>
       </c>
@@ -11057,13 +11085,13 @@
         <v>111</v>
       </c>
       <c r="F456">
-        <v>4.307074</v>
+        <v>4.3070740000000001</v>
       </c>
       <c r="G456">
-        <v>132.3103</v>
-      </c>
-    </row>
-    <row r="457" spans="1:7">
+        <v>132.31030000000001</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A457">
         <v>456</v>
       </c>
@@ -11080,7 +11108,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="458" spans="1:7">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A458">
         <v>457</v>
       </c>
@@ -11097,13 +11125,13 @@
         <v>111</v>
       </c>
       <c r="F458">
-        <v>7.514979999999999</v>
+        <v>7.5149799999999987</v>
       </c>
       <c r="G458">
-        <v>134.58252</v>
-      </c>
-    </row>
-    <row r="459" spans="1:7">
+        <v>134.58251999999999</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A459">
         <v>458</v>
       </c>
@@ -11120,13 +11148,13 @@
         <v>111</v>
       </c>
       <c r="F459">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G459">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="460" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A460">
         <v>459</v>
       </c>
@@ -11143,7 +11171,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="461" spans="1:7">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A461">
         <v>460</v>
       </c>
@@ -11160,13 +11188,13 @@
         <v>111</v>
       </c>
       <c r="F461">
-        <v>-8.8071792</v>
+        <v>-8.8071792000000002</v>
       </c>
       <c r="G461">
-        <v>148.3087349</v>
-      </c>
-    </row>
-    <row r="462" spans="1:7">
+        <v>148.30873489999999</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A462">
         <v>461</v>
       </c>
@@ -11189,7 +11217,7 @@
         <v>172.9716617</v>
       </c>
     </row>
-    <row r="463" spans="1:7">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A463">
         <v>462</v>
       </c>
@@ -11206,13 +11234,13 @@
         <v>111</v>
       </c>
       <c r="F463">
-        <v>16.5662</v>
+        <v>16.566199999999998</v>
       </c>
       <c r="G463">
-        <v>121.263</v>
-      </c>
-    </row>
-    <row r="464" spans="1:7">
+        <v>121.26300000000001</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A464">
         <v>463</v>
       </c>
@@ -11229,13 +11257,13 @@
         <v>111</v>
       </c>
       <c r="F464">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G464">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="465" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A465">
         <v>464</v>
       </c>
@@ -11252,13 +11280,13 @@
         <v>111</v>
       </c>
       <c r="F465">
-        <v>3.371485</v>
+        <v>3.3714849999999998</v>
       </c>
       <c r="G465">
         <v>172.9850994</v>
       </c>
     </row>
-    <row r="466" spans="1:7">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A466">
         <v>465</v>
       </c>
@@ -11281,7 +11309,7 @@
         <v>172.9716617</v>
       </c>
     </row>
-    <row r="467" spans="1:7">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A467">
         <v>466</v>
       </c>
@@ -11304,7 +11332,7 @@
         <v>171.0312989</v>
       </c>
     </row>
-    <row r="468" spans="1:7">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A468">
         <v>467</v>
       </c>
@@ -11327,7 +11355,7 @@
         <v>145.7467259</v>
       </c>
     </row>
-    <row r="469" spans="1:7">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A469">
         <v>468</v>
       </c>
@@ -11344,13 +11372,13 @@
         <v>111</v>
       </c>
       <c r="F469">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G469">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="470" spans="1:7">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A470">
         <v>469</v>
       </c>
@@ -11373,7 +11401,7 @@
         <v>145.7467259</v>
       </c>
     </row>
-    <row r="471" spans="1:7">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A471">
         <v>470</v>
       </c>
@@ -11390,13 +11418,13 @@
         <v>111</v>
       </c>
       <c r="F471">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G471">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="472" spans="1:7">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A472">
         <v>471</v>
       </c>
@@ -11413,7 +11441,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="473" spans="1:7">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A473">
         <v>472</v>
       </c>
@@ -11430,13 +11458,13 @@
         <v>111</v>
       </c>
       <c r="F473">
-        <v>7.514979999999999</v>
+        <v>7.5149799999999987</v>
       </c>
       <c r="G473">
-        <v>134.58252</v>
-      </c>
-    </row>
-    <row r="474" spans="1:7">
+        <v>134.58251999999999</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A474">
         <v>473</v>
       </c>
@@ -11453,13 +11481,13 @@
         <v>111</v>
       </c>
       <c r="F474">
-        <v>35.4747759</v>
+        <v>35.474775899999997</v>
       </c>
       <c r="G474">
-        <v>135.3861501</v>
-      </c>
-    </row>
-    <row r="475" spans="1:7">
+        <v>135.38615010000001</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A475">
         <v>474</v>
       </c>
@@ -11476,13 +11504,13 @@
         <v>111</v>
       </c>
       <c r="F475">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G475">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="476" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A476">
         <v>475</v>
       </c>
@@ -11505,7 +11533,7 @@
         <v>172.9716617</v>
       </c>
     </row>
-    <row r="477" spans="1:7">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A477">
         <v>476</v>
       </c>
@@ -11522,13 +11550,13 @@
         <v>111</v>
       </c>
       <c r="F477">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G477">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="478" spans="1:7">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A478">
         <v>477</v>
       </c>
@@ -11545,13 +11573,13 @@
         <v>111</v>
       </c>
       <c r="F478">
-        <v>1.312124</v>
+        <v>1.3121240000000001</v>
       </c>
       <c r="G478">
-        <v>128.485</v>
-      </c>
-    </row>
-    <row r="479" spans="1:7">
+        <v>128.48500000000001</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A479">
         <v>478</v>
       </c>
@@ -11568,13 +11596,13 @@
         <v>111</v>
       </c>
       <c r="F479">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G479">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="480" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A480">
         <v>479</v>
       </c>
@@ -11591,13 +11619,13 @@
         <v>111</v>
       </c>
       <c r="F480">
-        <v>7.514979999999999</v>
+        <v>7.5149799999999987</v>
       </c>
       <c r="G480">
-        <v>134.58252</v>
-      </c>
-    </row>
-    <row r="481" spans="1:7">
+        <v>134.58251999999999</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A481">
         <v>480</v>
       </c>
@@ -11614,13 +11642,13 @@
         <v>111</v>
       </c>
       <c r="F481">
-        <v>16.5662</v>
+        <v>16.566199999999998</v>
       </c>
       <c r="G481">
-        <v>121.263</v>
-      </c>
-    </row>
-    <row r="482" spans="1:7">
+        <v>121.26300000000001</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A482">
         <v>481</v>
       </c>
@@ -11637,13 +11665,13 @@
         <v>111</v>
       </c>
       <c r="F482">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G482">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="483" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A483">
         <v>482</v>
       </c>
@@ -11660,13 +11688,13 @@
         <v>111</v>
       </c>
       <c r="F483">
-        <v>-8.8071792</v>
+        <v>-8.8071792000000002</v>
       </c>
       <c r="G483">
-        <v>148.3087349</v>
-      </c>
-    </row>
-    <row r="484" spans="1:7">
+        <v>148.30873489999999</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A484">
         <v>483</v>
       </c>
@@ -11689,7 +11717,7 @@
         <v>172.9716617</v>
       </c>
     </row>
-    <row r="485" spans="1:7">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A485">
         <v>484</v>
       </c>
@@ -11706,13 +11734,13 @@
         <v>111</v>
       </c>
       <c r="F485">
-        <v>-8.8071792</v>
+        <v>-8.8071792000000002</v>
       </c>
       <c r="G485">
-        <v>148.3087349</v>
-      </c>
-    </row>
-    <row r="486" spans="1:7">
+        <v>148.30873489999999</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A486">
         <v>485</v>
       </c>
@@ -11729,13 +11757,13 @@
         <v>111</v>
       </c>
       <c r="F486">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G486">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="487" spans="1:7">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A487">
         <v>486</v>
       </c>
@@ -11752,13 +11780,13 @@
         <v>111</v>
       </c>
       <c r="F487">
-        <v>35.4747759</v>
+        <v>35.474775899999997</v>
       </c>
       <c r="G487">
-        <v>135.3861501</v>
-      </c>
-    </row>
-    <row r="488" spans="1:7">
+        <v>135.38615010000001</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A488">
         <v>487</v>
       </c>
@@ -11775,13 +11803,13 @@
         <v>111</v>
       </c>
       <c r="F488">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G488">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="489" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A489">
         <v>488</v>
       </c>
@@ -11798,13 +11826,13 @@
         <v>111</v>
       </c>
       <c r="F489">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G489">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="490" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A490">
         <v>489</v>
       </c>
@@ -11821,13 +11849,13 @@
         <v>111</v>
       </c>
       <c r="F490">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G490">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="491" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A491">
         <v>490</v>
       </c>
@@ -11844,13 +11872,13 @@
         <v>111</v>
       </c>
       <c r="F491">
-        <v>-8.8071792</v>
+        <v>-8.8071792000000002</v>
       </c>
       <c r="G491">
-        <v>148.3087349</v>
-      </c>
-    </row>
-    <row r="492" spans="1:7">
+        <v>148.30873489999999</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A492">
         <v>491</v>
       </c>
@@ -11867,13 +11895,13 @@
         <v>111</v>
       </c>
       <c r="F492">
-        <v>-8.8071792</v>
+        <v>-8.8071792000000002</v>
       </c>
       <c r="G492">
-        <v>148.3087349</v>
-      </c>
-    </row>
-    <row r="493" spans="1:7">
+        <v>148.30873489999999</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A493">
         <v>492</v>
       </c>
@@ -11890,13 +11918,13 @@
         <v>111</v>
       </c>
       <c r="F493">
-        <v>11.4653625</v>
+        <v>11.465362499999999</v>
       </c>
       <c r="G493">
-        <v>162.189</v>
-      </c>
-    </row>
-    <row r="494" spans="1:7">
+        <v>162.18899999999999</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A494">
         <v>493</v>
       </c>
@@ -11919,7 +11947,7 @@
         <v>124.8811195</v>
       </c>
     </row>
-    <row r="495" spans="1:7">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A495">
         <v>494</v>
       </c>
@@ -11936,13 +11964,13 @@
         <v>111</v>
       </c>
       <c r="F495">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G495">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="496" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A496">
         <v>495</v>
       </c>
@@ -11959,13 +11987,13 @@
         <v>111</v>
       </c>
       <c r="F496">
-        <v>13.444304</v>
+        <v>13.444304000000001</v>
       </c>
       <c r="G496">
-        <v>144.793731</v>
-      </c>
-    </row>
-    <row r="497" spans="1:7">
+        <v>144.79373100000001</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A497">
         <v>496</v>
       </c>
@@ -11982,13 +12010,13 @@
         <v>111</v>
       </c>
       <c r="F497">
-        <v>4.085044143053737</v>
+        <v>4.0850441430537368</v>
       </c>
       <c r="G497">
-        <v>131.7175510700953</v>
-      </c>
-    </row>
-    <row r="498" spans="1:7">
+        <v>131.71755107009531</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A498">
         <v>497</v>
       </c>
@@ -12005,13 +12033,13 @@
         <v>111</v>
       </c>
       <c r="F498">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G498">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="499" spans="1:7">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A499">
         <v>498</v>
       </c>
@@ -12028,13 +12056,13 @@
         <v>111</v>
       </c>
       <c r="F499">
-        <v>-8.8071792</v>
+        <v>-8.8071792000000002</v>
       </c>
       <c r="G499">
-        <v>148.3087349</v>
-      </c>
-    </row>
-    <row r="500" spans="1:7">
+        <v>148.30873489999999</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A500">
         <v>499</v>
       </c>
@@ -12051,13 +12079,13 @@
         <v>111</v>
       </c>
       <c r="F500">
-        <v>7.514979999999999</v>
+        <v>7.5149799999999987</v>
       </c>
       <c r="G500">
-        <v>134.58252</v>
-      </c>
-    </row>
-    <row r="501" spans="1:7">
+        <v>134.58251999999999</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A501">
         <v>500</v>
       </c>
@@ -12080,7 +12108,7 @@
         <v>114.404754</v>
       </c>
     </row>
-    <row r="502" spans="1:7">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A502">
         <v>501</v>
       </c>
@@ -12097,13 +12125,13 @@
         <v>111</v>
       </c>
       <c r="F502">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G502">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="503" spans="1:7">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A503">
         <v>502</v>
       </c>
@@ -12120,13 +12148,13 @@
         <v>111</v>
       </c>
       <c r="F503">
-        <v>-4.1999648</v>
+        <v>-4.1999648000000001</v>
       </c>
       <c r="G503">
-        <v>152.1644612</v>
-      </c>
-    </row>
-    <row r="504" spans="1:7">
+        <v>152.16446120000001</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A504">
         <v>503</v>
       </c>
@@ -12143,13 +12171,13 @@
         <v>111</v>
       </c>
       <c r="F504">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G504">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="505" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A505">
         <v>504</v>
       </c>
@@ -12166,7 +12194,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="506" spans="1:7">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A506">
         <v>505</v>
       </c>
@@ -12183,13 +12211,13 @@
         <v>111</v>
       </c>
       <c r="F506">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G506">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="507" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A507">
         <v>506</v>
       </c>
@@ -12206,13 +12234,13 @@
         <v>111</v>
       </c>
       <c r="F507">
-        <v>4.307074</v>
+        <v>4.3070740000000001</v>
       </c>
       <c r="G507">
-        <v>132.3103</v>
-      </c>
-    </row>
-    <row r="508" spans="1:7">
+        <v>132.31030000000001</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A508">
         <v>507</v>
       </c>
@@ -12235,7 +12263,7 @@
         <v>124.8811195</v>
       </c>
     </row>
-    <row r="509" spans="1:7">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A509">
         <v>508</v>
       </c>
@@ -12258,7 +12286,7 @@
         <v>121.774017</v>
       </c>
     </row>
-    <row r="510" spans="1:7">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A510">
         <v>509</v>
       </c>
@@ -12275,13 +12303,13 @@
         <v>111</v>
       </c>
       <c r="F510">
-        <v>-8.8071792</v>
+        <v>-8.8071792000000002</v>
       </c>
       <c r="G510">
-        <v>148.3087349</v>
-      </c>
-    </row>
-    <row r="511" spans="1:7">
+        <v>148.30873489999999</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A511">
         <v>510</v>
       </c>
@@ -12298,13 +12326,13 @@
         <v>111</v>
       </c>
       <c r="F511">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G511">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="512" spans="1:7">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A512">
         <v>511</v>
       </c>
@@ -12321,13 +12349,13 @@
         <v>111</v>
       </c>
       <c r="F512">
-        <v>-9.645709999999999</v>
+        <v>-9.6457099999999993</v>
       </c>
       <c r="G512">
         <v>160.156194</v>
       </c>
     </row>
-    <row r="513" spans="1:7">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A513">
         <v>512</v>
       </c>
@@ -12344,13 +12372,13 @@
         <v>111</v>
       </c>
       <c r="F513">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G513">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="514" spans="1:7">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A514">
         <v>513</v>
       </c>
@@ -12367,13 +12395,13 @@
         <v>111</v>
       </c>
       <c r="F514">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G514">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="515" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A515">
         <v>514</v>
       </c>
@@ -12390,13 +12418,13 @@
         <v>111</v>
       </c>
       <c r="F515">
-        <v>7.514979999999999</v>
+        <v>7.5149799999999987</v>
       </c>
       <c r="G515">
-        <v>134.58252</v>
-      </c>
-    </row>
-    <row r="516" spans="1:7">
+        <v>134.58251999999999</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A516">
         <v>515</v>
       </c>
@@ -12413,13 +12441,13 @@
         <v>111</v>
       </c>
       <c r="F516">
-        <v>7.514979999999999</v>
+        <v>7.5149799999999987</v>
       </c>
       <c r="G516">
-        <v>134.58252</v>
-      </c>
-    </row>
-    <row r="517" spans="1:7">
+        <v>134.58251999999999</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A517">
         <v>516</v>
       </c>
@@ -12436,13 +12464,13 @@
         <v>111</v>
       </c>
       <c r="F517">
-        <v>7.514979999999999</v>
+        <v>7.5149799999999987</v>
       </c>
       <c r="G517">
-        <v>134.58252</v>
-      </c>
-    </row>
-    <row r="518" spans="1:7">
+        <v>134.58251999999999</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A518">
         <v>517</v>
       </c>
@@ -12459,13 +12487,13 @@
         <v>111</v>
       </c>
       <c r="F518">
-        <v>-8.8071792</v>
+        <v>-8.8071792000000002</v>
       </c>
       <c r="G518">
-        <v>148.3087349</v>
-      </c>
-    </row>
-    <row r="519" spans="1:7">
+        <v>148.30873489999999</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A519">
         <v>518</v>
       </c>
@@ -12482,13 +12510,13 @@
         <v>111</v>
       </c>
       <c r="F519">
-        <v>-8.8071792</v>
+        <v>-8.8071792000000002</v>
       </c>
       <c r="G519">
-        <v>148.3087349</v>
-      </c>
-    </row>
-    <row r="520" spans="1:7">
+        <v>148.30873489999999</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A520">
         <v>519</v>
       </c>
@@ -12505,13 +12533,13 @@
         <v>111</v>
       </c>
       <c r="F520">
-        <v>11.4653625</v>
+        <v>11.465362499999999</v>
       </c>
       <c r="G520">
-        <v>162.189</v>
-      </c>
-    </row>
-    <row r="521" spans="1:7">
+        <v>162.18899999999999</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A521">
         <v>520</v>
       </c>
@@ -12528,13 +12556,13 @@
         <v>111</v>
       </c>
       <c r="F521">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G521">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="522" spans="1:7">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A522">
         <v>521</v>
       </c>
@@ -12551,13 +12579,13 @@
         <v>111</v>
       </c>
       <c r="F522">
-        <v>7.002290599999999</v>
+        <v>7.0022905999999994</v>
       </c>
       <c r="G522">
-        <v>134.2431628</v>
-      </c>
-    </row>
-    <row r="523" spans="1:7">
+        <v>134.24316279999999</v>
+      </c>
+    </row>
+    <row r="523" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A523">
         <v>522</v>
       </c>
@@ -12574,13 +12602,13 @@
         <v>111</v>
       </c>
       <c r="F523">
-        <v>24.8751844</v>
+        <v>24.875184399999998</v>
       </c>
       <c r="G523">
-        <v>93.89289789999999</v>
-      </c>
-    </row>
-    <row r="524" spans="1:7">
+        <v>93.892897899999994</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A524">
         <v>523</v>
       </c>
@@ -12597,13 +12625,13 @@
         <v>111</v>
       </c>
       <c r="F524">
-        <v>-8.8071792</v>
+        <v>-8.8071792000000002</v>
       </c>
       <c r="G524">
-        <v>148.3087349</v>
-      </c>
-    </row>
-    <row r="525" spans="1:7">
+        <v>148.30873489999999</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A525">
         <v>524</v>
       </c>
@@ -12620,13 +12648,13 @@
         <v>111</v>
       </c>
       <c r="F525">
-        <v>-8.8071792</v>
+        <v>-8.8071792000000002</v>
       </c>
       <c r="G525">
-        <v>148.3087349</v>
-      </c>
-    </row>
-    <row r="526" spans="1:7">
+        <v>148.30873489999999</v>
+      </c>
+    </row>
+    <row r="526" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A526">
         <v>525</v>
       </c>
@@ -12649,7 +12677,7 @@
         <v>172.9716617</v>
       </c>
     </row>
-    <row r="527" spans="1:7">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A527">
         <v>526</v>
       </c>
@@ -12666,13 +12694,13 @@
         <v>111</v>
       </c>
       <c r="F527">
-        <v>13.444304</v>
+        <v>13.444304000000001</v>
       </c>
       <c r="G527">
-        <v>144.793731</v>
-      </c>
-    </row>
-    <row r="528" spans="1:7">
+        <v>144.79373100000001</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A528">
         <v>527</v>
       </c>
@@ -12689,13 +12717,13 @@
         <v>111</v>
       </c>
       <c r="F528">
-        <v>-8.8071792</v>
+        <v>-8.8071792000000002</v>
       </c>
       <c r="G528">
-        <v>148.3087349</v>
-      </c>
-    </row>
-    <row r="529" spans="1:7">
+        <v>148.30873489999999</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A529">
         <v>528</v>
       </c>
@@ -12712,13 +12740,13 @@
         <v>111</v>
       </c>
       <c r="F529">
-        <v>15.0043455</v>
+        <v>15.004345499999999</v>
       </c>
       <c r="G529">
         <v>145.6356577</v>
       </c>
     </row>
-    <row r="530" spans="1:7">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A530">
         <v>529</v>
       </c>
@@ -12735,13 +12763,13 @@
         <v>111</v>
       </c>
       <c r="F530">
-        <v>13.444304</v>
+        <v>13.444304000000001</v>
       </c>
       <c r="G530">
-        <v>144.793731</v>
-      </c>
-    </row>
-    <row r="531" spans="1:7">
+        <v>144.79373100000001</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A531">
         <v>530</v>
       </c>
@@ -12758,13 +12786,13 @@
         <v>111</v>
       </c>
       <c r="F531">
-        <v>13.444304</v>
+        <v>13.444304000000001</v>
       </c>
       <c r="G531">
-        <v>144.793731</v>
-      </c>
-    </row>
-    <row r="532" spans="1:7">
+        <v>144.79373100000001</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A532">
         <v>531</v>
       </c>
@@ -12781,13 +12809,13 @@
         <v>111</v>
       </c>
       <c r="F532">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G532">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="533" spans="1:7">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A533">
         <v>532</v>
       </c>
@@ -12804,13 +12832,13 @@
         <v>111</v>
       </c>
       <c r="F533">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G533">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="534" spans="1:7">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A534">
         <v>533</v>
       </c>
@@ -12827,13 +12855,13 @@
         <v>111</v>
       </c>
       <c r="F534">
-        <v>30.39535</v>
+        <v>30.395350000000001</v>
       </c>
       <c r="G534">
         <v>125.9152</v>
       </c>
     </row>
-    <row r="535" spans="1:7">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A535">
         <v>534</v>
       </c>
@@ -12856,7 +12884,7 @@
         <v>171.0312989</v>
       </c>
     </row>
-    <row r="536" spans="1:7">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A536">
         <v>535</v>
       </c>
@@ -12873,13 +12901,13 @@
         <v>111</v>
       </c>
       <c r="F536">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G536">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="537" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A537">
         <v>536</v>
       </c>
@@ -12896,13 +12924,13 @@
         <v>111</v>
       </c>
       <c r="F537">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G537">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="538" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A538">
         <v>537</v>
       </c>
@@ -12919,7 +12947,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="539" spans="1:7">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A539">
         <v>538</v>
       </c>
@@ -12936,13 +12964,13 @@
         <v>111</v>
       </c>
       <c r="F539">
-        <v>7.514979999999999</v>
+        <v>7.5149799999999987</v>
       </c>
       <c r="G539">
-        <v>134.58252</v>
-      </c>
-    </row>
-    <row r="540" spans="1:7">
+        <v>134.58251999999999</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A540">
         <v>539</v>
       </c>
@@ -12959,13 +12987,13 @@
         <v>111</v>
       </c>
       <c r="F540">
-        <v>7.4863889</v>
+        <v>7.4863888999999997</v>
       </c>
       <c r="G540">
-        <v>134.5533333</v>
-      </c>
-    </row>
-    <row r="541" spans="1:7">
+        <v>134.55333329999999</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A541">
         <v>540</v>
       </c>
@@ -12982,13 +13010,13 @@
         <v>111</v>
       </c>
       <c r="F541">
-        <v>10.3156992</v>
+        <v>10.315699199999999</v>
       </c>
       <c r="G541">
-        <v>123.8854366</v>
-      </c>
-    </row>
-    <row r="542" spans="1:7">
+        <v>123.88543660000001</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A542">
         <v>541</v>
       </c>
@@ -13005,13 +13033,13 @@
         <v>111</v>
       </c>
       <c r="F542">
-        <v>6.90439637913868</v>
+        <v>6.9043963791386798</v>
       </c>
       <c r="G542">
-        <v>158.211469186197</v>
-      </c>
-    </row>
-    <row r="543" spans="1:7">
+        <v>158.21146918619701</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A543">
         <v>542</v>
       </c>
@@ -13028,13 +13056,13 @@
         <v>111</v>
       </c>
       <c r="F543">
-        <v>-4.1999648</v>
+        <v>-4.1999648000000001</v>
       </c>
       <c r="G543">
-        <v>152.1644612</v>
-      </c>
-    </row>
-    <row r="544" spans="1:7">
+        <v>152.16446120000001</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A544">
         <v>543</v>
       </c>
@@ -13051,13 +13079,13 @@
         <v>111</v>
       </c>
       <c r="F544">
-        <v>7.514979999999999</v>
+        <v>7.5149799999999987</v>
       </c>
       <c r="G544">
-        <v>134.58252</v>
-      </c>
-    </row>
-    <row r="545" spans="1:7">
+        <v>134.58251999999999</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A545">
         <v>544</v>
       </c>
@@ -13074,13 +13102,13 @@
         <v>111</v>
       </c>
       <c r="F545">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G545">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="546" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A546">
         <v>545</v>
       </c>
@@ -13097,13 +13125,13 @@
         <v>111</v>
       </c>
       <c r="F546">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G546">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="547" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="547" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A547">
         <v>546</v>
       </c>
@@ -13120,13 +13148,13 @@
         <v>111</v>
       </c>
       <c r="F547">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G547">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="548" spans="1:7">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A548">
         <v>547</v>
       </c>
@@ -13143,13 +13171,13 @@
         <v>111</v>
       </c>
       <c r="F548">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G548">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="549" spans="1:7">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A549">
         <v>548</v>
       </c>
@@ -13166,13 +13194,13 @@
         <v>111</v>
       </c>
       <c r="F549">
-        <v>7.002290599999999</v>
+        <v>7.0022905999999994</v>
       </c>
       <c r="G549">
-        <v>134.2431628</v>
-      </c>
-    </row>
-    <row r="550" spans="1:7">
+        <v>134.24316279999999</v>
+      </c>
+    </row>
+    <row r="550" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A550">
         <v>549</v>
       </c>
@@ -13189,13 +13217,13 @@
         <v>111</v>
       </c>
       <c r="F550">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G550">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="551" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="551" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A551">
         <v>550</v>
       </c>
@@ -13212,13 +13240,13 @@
         <v>111</v>
       </c>
       <c r="F551">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G551">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="552" spans="1:7">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A552">
         <v>551</v>
       </c>
@@ -13235,13 +13263,13 @@
         <v>111</v>
       </c>
       <c r="F552">
-        <v>7.514979999999999</v>
+        <v>7.5149799999999987</v>
       </c>
       <c r="G552">
-        <v>134.58252</v>
-      </c>
-    </row>
-    <row r="553" spans="1:7">
+        <v>134.58251999999999</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A553">
         <v>552</v>
       </c>
@@ -13258,13 +13286,13 @@
         <v>111</v>
       </c>
       <c r="F553">
-        <v>-4.1999648</v>
+        <v>-4.1999648000000001</v>
       </c>
       <c r="G553">
-        <v>152.1644612</v>
-      </c>
-    </row>
-    <row r="554" spans="1:7">
+        <v>152.16446120000001</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A554">
         <v>553</v>
       </c>
@@ -13281,13 +13309,13 @@
         <v>111</v>
       </c>
       <c r="F554">
-        <v>7.1353174</v>
+        <v>7.1353173999999999</v>
       </c>
       <c r="G554">
-        <v>150.187732</v>
-      </c>
-    </row>
-    <row r="555" spans="1:7">
+        <v>150.18773200000001</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A555">
         <v>554</v>
       </c>
@@ -13304,13 +13332,13 @@
         <v>111</v>
       </c>
       <c r="F555">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G555">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="556" spans="1:7">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A556">
         <v>555</v>
       </c>
@@ -13327,13 +13355,13 @@
         <v>111</v>
       </c>
       <c r="F556">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G556">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="557" spans="1:7">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A557">
         <v>556</v>
       </c>
@@ -13350,13 +13378,13 @@
         <v>111</v>
       </c>
       <c r="F557">
-        <v>-6.314992999999999</v>
+        <v>-6.3149929999999994</v>
       </c>
       <c r="G557">
-        <v>143.95555</v>
-      </c>
-    </row>
-    <row r="558" spans="1:7">
+        <v>143.95554999999999</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A558">
         <v>557</v>
       </c>
@@ -13373,13 +13401,13 @@
         <v>111</v>
       </c>
       <c r="F558">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G558">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="559" spans="1:7">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A559">
         <v>558</v>
       </c>
@@ -13396,13 +13424,13 @@
         <v>111</v>
       </c>
       <c r="F559">
-        <v>-8.783194999999999</v>
+        <v>-8.7831949999999992</v>
       </c>
       <c r="G559">
         <v>-124.508523</v>
       </c>
     </row>
-    <row r="560" spans="1:7">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A560">
         <v>559</v>
       </c>
@@ -13410,7 +13438,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="561" spans="1:5">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A561">
         <v>560</v>
       </c>
@@ -13419,6 +13447,9 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="D1:D561" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>